--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1958,8 +1964,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2437,8 +2645,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3322,6 +3836,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3329,7 +4407,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3570,52 +4648,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="69" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="69" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="52" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4627,7 +5801,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -4662,7 +5836,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -4694,7 +5868,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>494</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -4726,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -4754,6 +5928,9 @@
       <c r="J15" t="s">
         <v>464</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -4779,6 +5956,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1557,6 +1557,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1573,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="94" x14ac:knownFonts="1">
+  <fonts count="110" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2166,8 +2175,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2951,8 +3061,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4400,6 +4663,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4407,7 +4952,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4744,52 +5289,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="84" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5144,7 +5737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5743,7 +6336,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10">
@@ -5781,7 +6374,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11">
@@ -5816,7 +6409,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -5850,6 +6443,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -5882,6 +6478,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6472,7 +7071,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64">
@@ -6480,7 +7079,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -6488,7 +7087,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -6496,7 +7095,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67">
@@ -6504,7 +7103,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -6512,7 +7111,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -6520,7 +7119,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -6528,7 +7127,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -6536,7 +7135,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -6544,7 +7143,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -6552,7 +7151,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74">
@@ -6560,7 +7159,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75">
@@ -6568,7 +7167,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -6576,7 +7175,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -6584,7 +7183,7 @@
         <v>430</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -6592,7 +7191,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -6600,7 +7199,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -6608,7 +7207,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -6616,7 +7215,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -6624,7 +7223,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83">
@@ -6632,7 +7231,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -6640,7 +7239,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -6648,7 +7247,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -6656,7 +7255,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -6664,7 +7263,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -6672,7 +7271,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89">
@@ -6680,7 +7279,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90">
@@ -6688,7 +7287,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -6696,7 +7295,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -6704,141 +7303,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -26,30 +26,31 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1566,6 +1567,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1598,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="110" x14ac:knownFonts="1">
+  <fonts count="126" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2276,8 +2301,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3214,8 +3340,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4945,6 +5224,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4952,7 +5513,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5337,52 +5898,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="100" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5737,7 +6346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5786,48 +6395,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>413</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>415</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5869,48 +6481,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N2" t="s">
         <v>418</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>420</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>421</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>433</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5937,7 +6552,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -5951,43 +6566,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>503</v>
+      </c>
+      <c r="O3" t="s">
         <v>432</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>422</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6010,6 +6628,9 @@
       <c r="G4" t="s">
         <v>452</v>
       </c>
+      <c r="H4" t="s">
+        <v>501</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -6022,43 +6643,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>504</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>425</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6090,40 +6714,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>424</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>426</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6152,37 +6776,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>446</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6208,37 +6832,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>419</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>447</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>428</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6264,34 +6888,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>429</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6317,25 +6941,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6358,22 +6982,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>438</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>498</v>
       </c>
     </row>
@@ -6396,19 +7020,19 @@
       <c r="L11" t="s">
         <v>495</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6431,25 +7055,25 @@
       <c r="L12" t="s">
         <v>437</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -6466,25 +7090,25 @@
       <c r="L13" t="s">
         <v>494</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -6501,22 +7125,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -6530,22 +7154,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -6559,19 +7183,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -6582,16 +7206,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>416</v>
@@ -6602,13 +7226,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -6619,13 +7243,13 @@
       <c r="J19" t="s">
         <v>493</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -6636,13 +7260,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -6653,13 +7277,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -6670,13 +7294,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -6687,13 +7311,13 @@
       <c r="J23" t="s">
         <v>435</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -6704,13 +7328,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>450</v>
@@ -6721,13 +7345,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -6735,13 +7359,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -6749,18 +7373,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>491</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6771,7 +7398,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6782,7 +7409,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6793,7 +7420,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6804,7 +7431,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6815,7 +7442,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6826,7 +7453,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6837,7 +7464,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6848,7 +7475,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6859,7 +7486,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6870,7 +7497,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6878,7 +7505,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6886,7 +7513,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6894,7 +7521,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6902,7 +7529,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6910,7 +7537,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6918,7 +7545,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6926,7 +7553,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6934,7 +7561,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6942,7 +7569,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6950,7 +7577,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6958,7 +7585,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6966,7 +7593,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6974,475 +7601,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>465</v>
+      <c r="W51" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>466</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>441</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>496</v>
+      <c r="W63" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>442</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>454</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>467</v>
+      <c r="W74" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>430</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>455</v>
+      <c r="W82" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>443</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>444</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1591,6 +1591,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="126" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2402,8 +2405,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3493,8 +3597,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5506,6 +5763,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5513,7 +6052,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5946,52 +6485,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="112" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7278,7 +7865,7 @@
         <v>393</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1601,7 +1601,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="158" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2506,8 +2506,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3750,8 +3851,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6045,6 +6299,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6052,7 +6588,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="185">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6533,52 +7069,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="132" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,37 +20,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4968" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1594,6 +1595,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="158" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2607,8 +2623,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4004,8 +4323,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -6581,6 +7359,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6588,7 +8212,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7117,52 +8741,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="231" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="160" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7517,7 +9285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7539,78 +9307,81 @@
         <v>456</v>
       </c>
       <c r="D1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>499</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>413</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>414</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>415</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7625,78 +9396,81 @@
         <v>457</v>
       </c>
       <c r="D2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>451</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>462</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>502</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>418</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>420</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>433</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7711,1546 +9485,1558 @@
         <v>458</v>
       </c>
       <c r="D3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" t="s">
         <v>459</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>500</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>503</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>432</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>452</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>501</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>504</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>423</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>425</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" t="s">
         <v>460</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>461</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>463</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>426</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>449</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>446</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>427</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>419</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>447</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>428</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>429</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>453</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>438</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>495</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>437</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>494</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>464</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>416</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>493</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>435</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>450</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" t="s">
+        <v>491</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>491</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>492</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>417</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>430</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -49,7 +49,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1610,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="222" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2926,8 +2941,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4782,8 +4898,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -8205,6 +8474,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8212,7 +8763,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="249">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8885,52 +9436,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9471,7 +10070,7 @@
         <v>433</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
@@ -9554,7 +10153,7 @@
         <v>185</v>
       </c>
       <c r="AC3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -9634,7 +10233,7 @@
         <v>425</v>
       </c>
       <c r="AC4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -9702,7 +10301,7 @@
         <v>426</v>
       </c>
       <c r="AC5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -9761,7 +10360,7 @@
         <v>427</v>
       </c>
       <c r="AC6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -9817,7 +10416,7 @@
         <v>428</v>
       </c>
       <c r="AC7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -9870,7 +10469,7 @@
         <v>429</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -9914,7 +10513,7 @@
         <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>497</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -9952,7 +10551,7 @@
         <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
@@ -9987,7 +10586,7 @@
         <v>260</v>
       </c>
       <c r="AC11" t="s">
-        <v>236</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12">
@@ -10022,7 +10621,7 @@
         <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>237</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13">
@@ -10057,7 +10656,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>238</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14">
@@ -10091,6 +10690,9 @@
       <c r="AA14" t="s">
         <v>194</v>
       </c>
+      <c r="AC14" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -10120,6 +10722,9 @@
       <c r="AA15" t="s">
         <v>195</v>
       </c>
+      <c r="AC15" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -10146,6 +10751,9 @@
       <c r="AA16" t="s">
         <v>196</v>
       </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -10166,6 +10774,9 @@
       <c r="AA17" t="s">
         <v>468</v>
       </c>
+      <c r="AC17" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -10182,6 +10793,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6961" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1625,6 +1625,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1644,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="222" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3042,8 +3054,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5051,8 +5164,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8756,6 +9022,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8763,7 +9311,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9484,52 +10032,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="212" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9884,7 +10480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10656,7 +11252,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14">
@@ -10691,7 +11287,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15">
@@ -10723,7 +11319,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16">
@@ -10752,7 +11348,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17">
@@ -10775,7 +11371,7 @@
         <v>468</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18">
@@ -10795,7 +11391,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19">
@@ -10814,6 +11410,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -10831,6 +11430,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -10848,6 +11450,9 @@
       <c r="X21" t="s">
         <v>507</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -11397,7 +12002,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80">
@@ -11405,7 +12010,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -11413,7 +12018,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -11421,7 +12026,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -11429,7 +12034,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84">
@@ -11437,7 +12042,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -11445,7 +12050,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86">
@@ -11453,7 +12058,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -11461,7 +12066,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -11469,7 +12074,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -11477,7 +12082,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -11485,7 +12090,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -11493,7 +12098,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92">
@@ -11501,156 +12106,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -35,7 +35,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8491" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1637,6 +1637,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1653,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="270" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3155,8 +3164,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5317,8 +5528,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9304,6 +9821,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9311,7 +10392,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="297">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10080,52 +11161,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="244" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10480,7 +11657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11307,7 +12484,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -11338,6 +12515,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>523</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -11365,7 +12545,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>524</v>
       </c>
       <c r="AA17" t="s">
         <v>468</v>
@@ -11388,7 +12568,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>521</v>
@@ -11408,7 +12588,7 @@
         <v>493</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -11428,7 +12608,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -11448,7 +12628,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -11468,7 +12648,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23">
@@ -11485,7 +12665,7 @@
         <v>435</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -11502,7 +12682,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -11519,7 +12699,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -11533,7 +12713,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -11547,7 +12727,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -11561,7 +12741,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -11575,7 +12755,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -11586,7 +12766,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -11597,7 +12777,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -11608,7 +12788,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -11619,7 +12799,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -11630,7 +12810,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -11641,7 +12821,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -11652,7 +12832,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -11663,7 +12843,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -11674,7 +12854,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39">
@@ -11682,7 +12862,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -11690,7 +12870,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -11698,7 +12878,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -11706,7 +12886,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -11714,7 +12894,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -11722,7 +12902,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -11730,7 +12910,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -11738,7 +12918,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47">
@@ -11746,7 +12926,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -11754,7 +12934,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -11762,7 +12942,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -11770,7 +12950,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -11778,7 +12958,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -11786,7 +12966,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
@@ -11794,7 +12974,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54">
@@ -11802,7 +12982,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -11810,7 +12990,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -11818,7 +12998,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57">
@@ -11826,7 +13006,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -11834,7 +13014,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -11842,7 +13022,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -11850,7 +13030,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -11858,7 +13038,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -11866,7 +13046,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -11874,7 +13054,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -11882,7 +13062,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -11890,7 +13070,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66">
@@ -11898,7 +13078,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -11906,7 +13086,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -11914,7 +13094,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69">
@@ -11922,7 +13102,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -11930,7 +13110,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -11938,7 +13118,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -11946,7 +13126,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -11954,7 +13134,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -11962,7 +13142,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -11970,7 +13150,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76">
@@ -11978,7 +13158,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77">
@@ -11986,7 +13166,7 @@
         <v>430</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -11994,7 +13174,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -12002,7 +13182,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -12010,7 +13190,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81">
@@ -12018,7 +13198,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -12026,7 +13206,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -12034,7 +13214,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -12042,7 +13222,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85">
@@ -12050,7 +13230,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -12058,7 +13238,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87">
@@ -12066,7 +13246,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -12074,7 +13254,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -12082,7 +13262,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -12090,7 +13270,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -12098,7 +13278,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -12106,161 +13286,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8491" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9514" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1646,6 +1646,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1656,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="270" x14ac:knownFonts="1">
+  <fonts count="302" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3366,8 +3369,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5834,8 +6039,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10385,6 +10896,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10392,7 +11467,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="329">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11257,52 +12332,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="257" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="260" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="272" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="276" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11657,7 +12828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13326,126 +14497,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -21,14 +21,14 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9514" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="530">
   <si>
     <t>description</t>
   </si>
@@ -1649,6 +1649,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1668,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="302" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3571,8 +3583,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6345,8 +6458,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11460,6 +11726,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11467,7 +12015,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="345">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12428,52 +12976,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="286" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="288" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="292" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="299" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13258,6 +13854,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>526</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -13380,7 +13979,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -13433,7 +14032,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -13474,7 +14073,7 @@
         <v>453</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -13512,7 +14111,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>528</v>
       </c>
       <c r="M11" t="s">
         <v>495</v>
@@ -13547,7 +14146,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>437</v>
@@ -13582,7 +14181,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>494</v>
@@ -13617,7 +14216,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -13649,7 +14248,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -13681,7 +14280,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -13713,7 +14312,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>524</v>
@@ -13736,7 +14335,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -13756,7 +14355,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>493</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -13776,7 +14375,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -13796,7 +14395,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -13816,7 +14415,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>493</v>
       </c>
       <c r="X22" t="s">
         <v>507</v>
@@ -13833,7 +14432,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -13850,7 +14449,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -13867,7 +14466,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -13883,6 +14482,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -13897,6 +14499,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -13910,6 +14515,9 @@
       </c>
       <c r="G28" t="s">
         <v>284</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>328</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10548" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1661,6 +1661,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1674,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="318" x14ac:knownFonts="1">
+  <fonts count="334" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3684,8 +3690,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6611,8 +6718,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -12008,6 +12268,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12015,7 +12557,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="361">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13024,52 +13566,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="304" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="307" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="308" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14575,7 +15165,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>530</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -14586,7 +15176,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -14597,7 +15187,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -14608,7 +15198,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -14619,7 +15209,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -14630,7 +15220,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>439</v>
@@ -14638,7 +15228,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -14646,7 +15236,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -14654,7 +15244,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -14662,7 +15252,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -14670,7 +15260,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -14678,7 +15268,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -14686,7 +15276,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -14694,7 +15284,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>440</v>
@@ -14702,7 +15292,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -14710,7 +15300,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -14718,7 +15308,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -14726,7 +15316,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -14734,7 +15324,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -14742,7 +15332,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>505</v>
@@ -14750,7 +15340,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>465</v>
@@ -14758,7 +15348,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -14766,7 +15356,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -14774,7 +15364,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>466</v>
@@ -14782,7 +15372,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -14790,7 +15380,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -14798,7 +15388,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -14806,7 +15396,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -14814,7 +15404,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -14822,7 +15412,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -14830,7 +15420,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -14838,7 +15428,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>441</v>
@@ -14846,7 +15436,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>496</v>
@@ -14854,7 +15444,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -14862,7 +15452,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -14870,7 +15460,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>442</v>
@@ -14878,7 +15468,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -14886,7 +15476,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -14894,7 +15484,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -14902,7 +15492,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -14910,7 +15500,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -14918,7 +15508,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>531</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -14926,7 +15516,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>454</v>
@@ -14934,7 +15524,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>467</v>
@@ -14942,7 +15532,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -14950,7 +15540,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -14958,7 +15548,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -14966,7 +15556,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>518</v>
@@ -14974,7 +15564,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -14982,7 +15572,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -14990,7 +15580,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -14998,7 +15588,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>506</v>
@@ -15006,7 +15596,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -15014,7 +15604,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>455</v>
@@ -15022,7 +15612,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -15030,7 +15620,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -15038,7 +15628,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -15046,7 +15636,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -15054,7 +15644,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -15062,18 +15652,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10548" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1667,6 +1667,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1680,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="334" x14ac:knownFonts="1">
+  <fonts count="366" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3791,8 +3797,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="604">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6871,8 +7079,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12550,6 +13098,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12557,7 +13669,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="393">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13614,52 +14726,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="323" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="324" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="336" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="340" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="576" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="585" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="591" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14014,7 +15222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15706,126 +16914,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -31,27 +31,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12116" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1673,6 +1674,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1702,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="366" x14ac:knownFonts="1">
+  <fonts count="382" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3999,8 +4021,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="604">
+  <fills count="634">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7419,8 +7542,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13662,6 +13955,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13669,7 +14244,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="409">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14822,52 +15397,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="576" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="576" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="579" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="579" fontId="352" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="585" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="585" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="591" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="591" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="594" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="597" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="597" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="621" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="624" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15222,7 +15845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15274,51 +15897,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>534</v>
+      </c>
+      <c r="O1" t="s">
         <v>499</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>414</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>415</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15363,51 +15989,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>535</v>
+      </c>
+      <c r="O2" t="s">
         <v>502</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>418</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>431</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>399</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>420</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>421</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>433</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -15452,45 +16081,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>536</v>
+      </c>
+      <c r="O3" t="s">
         <v>503</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>432</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>422</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15532,45 +16164,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>537</v>
+      </c>
+      <c r="O4" t="s">
         <v>504</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>423</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>425</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -15605,40 +16240,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>424</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>426</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -15670,37 +16308,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>403</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>427</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -15726,37 +16367,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>419</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>447</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>428</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -15782,34 +16426,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>405</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>429</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -15835,25 +16479,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>406</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -15876,22 +16520,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>438</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15914,19 +16558,19 @@
       <c r="M11" t="s">
         <v>495</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>514</v>
       </c>
     </row>
@@ -15949,19 +16593,19 @@
       <c r="M12" t="s">
         <v>437</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15984,25 +16628,25 @@
       <c r="M13" t="s">
         <v>494</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -16019,25 +16663,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>499</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -16051,25 +16695,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>522</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -16083,25 +16727,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>523</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -16112,19 +16756,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>524</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>468</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>416</v>
@@ -16135,16 +16779,16 @@
       <c r="K18" t="s">
         <v>464</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -16155,16 +16799,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -16175,16 +16819,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -16195,16 +16839,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -16215,13 +16859,13 @@
       <c r="K22" t="s">
         <v>493</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -16232,13 +16876,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -16249,13 +16893,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>450</v>
@@ -16266,13 +16910,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -16283,13 +16927,13 @@
       <c r="K26" t="s">
         <v>435</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -16300,13 +16944,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>491</v>
@@ -16317,13 +16961,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>492</v>
@@ -16331,18 +16975,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>417</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -16353,7 +17000,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16364,7 +17011,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16375,7 +17022,7 @@
       <c r="G33" t="s">
         <v>530</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -16386,7 +17033,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16397,7 +17044,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -16408,7 +17055,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16419,7 +17066,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -16430,7 +17077,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16438,7 +17085,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -16446,7 +17093,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16454,7 +17101,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -16462,7 +17109,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -16470,7 +17117,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -16478,7 +17125,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16486,7 +17133,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16494,7 +17141,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>440</v>
       </c>
     </row>
@@ -16502,7 +17149,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -16510,7 +17157,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -16518,7 +17165,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16526,7 +17173,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -16534,7 +17181,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16542,7 +17189,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>505</v>
       </c>
     </row>
@@ -16550,7 +17197,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>465</v>
       </c>
     </row>
@@ -16558,7 +17205,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16566,7 +17213,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -16574,7 +17221,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>466</v>
       </c>
     </row>
@@ -16582,7 +17229,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16590,7 +17237,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16598,7 +17245,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -16606,7 +17253,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16614,7 +17261,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -16622,7 +17269,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -16630,7 +17277,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -16638,7 +17285,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16646,7 +17293,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>496</v>
       </c>
     </row>
@@ -16654,7 +17301,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -16662,7 +17309,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -16670,7 +17317,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>442</v>
       </c>
     </row>
@@ -16678,7 +17325,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -16686,7 +17333,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16694,7 +17341,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -16702,7 +17349,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -16710,7 +17357,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16718,7 +17365,7 @@
       <c r="G74" t="s">
         <v>531</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -16726,7 +17373,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16734,7 +17381,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>467</v>
       </c>
     </row>
@@ -16742,7 +17389,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16750,7 +17397,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16758,7 +17405,7 @@
       <c r="G79" t="s">
         <v>430</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16766,7 +17413,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>518</v>
       </c>
     </row>
@@ -16774,7 +17421,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16782,7 +17429,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16790,7 +17437,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16798,7 +17445,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>506</v>
       </c>
     </row>
@@ -16806,7 +17453,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16814,7 +17461,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>455</v>
       </c>
     </row>
@@ -16822,7 +17469,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16830,7 +17477,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16838,7 +17485,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16846,7 +17493,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -16854,7 +17501,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -16862,7 +17509,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>443</v>
       </c>
     </row>
@@ -16870,7 +17517,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>444</v>
       </c>
     </row>
@@ -16878,172 +17525,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12116" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14242" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1695,6 +1695,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="382" x14ac:knownFonts="1">
+  <fonts count="446" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4122,8 +4134,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="634">
+  <fills count="754">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7712,8 +8128,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -14237,6 +15333,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14244,7 +16468,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="409">
+  <cellXfs count="473">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15445,52 +17669,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="606" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="609" fontId="368" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="612" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="612" fontId="369" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="615" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="372" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="621" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="621" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="624" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="624" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="627" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="627" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="630" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="615" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="381" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="636" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="639" fontId="384" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="642" fontId="385" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="645" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="388" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="651" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="654" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="657" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="657" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="666" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="669" fontId="400" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="672" fontId="401" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="675" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="404" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="681" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="684" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="687" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="687" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="696" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="699" fontId="416" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="702" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="705" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="420" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="711" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="714" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="717" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="717" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="726" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="729" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="732" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="735" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="741" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="744" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="747" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="747" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16241,7 +18657,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -16309,7 +18725,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -16368,7 +18784,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -16426,6 +18842,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>538</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -16479,6 +18898,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>539</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -16520,6 +18942,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>540</v>
+      </c>
       <c r="Q10" t="s">
         <v>438</v>
       </c>
@@ -16908,7 +19333,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>544</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -16925,7 +19350,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -16942,7 +19367,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -16959,7 +19384,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -16974,6 +19399,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -51,8 +51,8 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14242" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14777" uniqueCount="549">
   <si>
     <t>description</t>
   </si>
@@ -1707,6 +1707,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="446" x14ac:knownFonts="1">
+  <fonts count="462" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4538,8 +4550,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="754">
+  <fills count="784">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8808,8 +8921,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -16461,6 +16744,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16468,7 +17033,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="489">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17861,52 +18426,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="726" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="726" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="729" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="729" fontId="432" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="732" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="732" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="735" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="735" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="741" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="741" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="744" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="744" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="747" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="747" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="747" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="747" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="750" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="750" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="756" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="759" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="765" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="771" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="774" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18467,7 +19080,7 @@
         <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
         <v>459</v>
@@ -18550,7 +19163,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -18633,7 +19246,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E5" t="s">
         <v>460</v>
@@ -18657,7 +19270,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -18703,6 +19316,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>512</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -18725,7 +19341,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -18784,7 +19400,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -18843,7 +19459,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -18899,7 +19515,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -18943,7 +19559,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q10" t="s">
         <v>438</v>
@@ -18983,6 +19599,9 @@
       <c r="M11" t="s">
         <v>495</v>
       </c>
+      <c r="N11" t="s">
+        <v>539</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -19018,6 +19637,9 @@
       <c r="M12" t="s">
         <v>437</v>
       </c>
+      <c r="N12" t="s">
+        <v>540</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -19333,7 +19955,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14777" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15314" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1719,6 +1719,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="462" x14ac:knownFonts="1">
+  <fonts count="478" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4651,8 +4657,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="784">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9091,8 +9198,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -17026,6 +17303,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17033,7 +17592,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="505">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18474,52 +19033,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="756" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="756" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="759" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="759" fontId="448" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="762" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="762" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="765" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="765" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="452" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="771" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="771" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="774" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="774" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="777" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="777" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="777" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="765" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="786" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="789" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="792" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="795" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="801" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="804" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18874,7 +19481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19260,6 +19867,9 @@
       <c r="H5" t="s">
         <v>461</v>
       </c>
+      <c r="I5" t="s">
+        <v>549</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -20136,7 +20746,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40">
@@ -20144,7 +20754,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -20152,7 +20762,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -20160,7 +20770,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -20168,7 +20778,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -20176,7 +20786,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -20184,7 +20794,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -20192,7 +20802,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -20200,7 +20810,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48">
@@ -20208,7 +20818,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -20216,7 +20826,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -20224,7 +20834,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -20232,7 +20842,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -20240,7 +20850,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -20248,7 +20858,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54">
@@ -20256,7 +20866,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55">
@@ -20264,7 +20874,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -20272,7 +20882,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -20280,7 +20890,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
@@ -20288,7 +20898,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -20296,7 +20906,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -20304,7 +20914,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -20312,7 +20922,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -20320,7 +20930,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -20328,7 +20938,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -20336,7 +20946,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -20344,7 +20954,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66">
@@ -20352,7 +20962,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67">
@@ -20360,7 +20970,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -20368,7 +20978,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -20376,7 +20986,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70">
@@ -20384,7 +20994,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -20392,7 +21002,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -20400,7 +21010,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -20408,7 +21018,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -20416,7 +21026,7 @@
         <v>531</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -20424,7 +21034,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -20432,7 +21042,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77">
@@ -20440,7 +21050,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78">
@@ -20448,7 +21058,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -20456,7 +21066,7 @@
         <v>430</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -20464,7 +21074,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -20472,7 +21082,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82">
@@ -20480,7 +21090,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -20488,7 +21098,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -20496,7 +21106,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -20504,7 +21114,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86">
@@ -20512,7 +21122,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -20520,7 +21130,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88">
@@ -20528,7 +21138,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -20536,7 +21146,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -20544,7 +21154,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -20552,7 +21162,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -20560,7 +21170,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -20568,7 +21178,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94">
@@ -20576,171 +21186,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -24,13 +24,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15314" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15861" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1725,6 +1725,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1765,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="478" x14ac:knownFonts="1">
+  <fonts count="494" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4758,8 +4791,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9368,8 +9502,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="847">
     <border>
       <left/>
       <right/>
@@ -17585,6 +17872,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17592,7 +18205,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="505">
+  <cellXfs count="521">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19081,52 +19694,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="786" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="786" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="789" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="789" fontId="464" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="792" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="792" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="795" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="795" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="468" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="801" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="801" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="804" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="804" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="807" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="807" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="807" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="816" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="819" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="822" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="831" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="822" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="834" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="834" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19481,7 +20142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20003,6 +20664,9 @@
       <c r="H7" t="s">
         <v>448</v>
       </c>
+      <c r="J7" t="s">
+        <v>553</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -20043,7 +20707,7 @@
         <v>428</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8">
@@ -20099,7 +20763,7 @@
         <v>429</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9">
@@ -20146,7 +20810,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
@@ -20187,7 +20851,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>497</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -20225,7 +20889,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>514</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -20245,7 +20909,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>437</v>
+        <v>554</v>
       </c>
       <c r="N12" t="s">
         <v>540</v>
@@ -20263,7 +20927,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>515</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -20283,7 +20947,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -20298,7 +20962,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14">
@@ -20318,7 +20982,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>494</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -20333,7 +20997,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15">
@@ -20350,7 +21014,7 @@
         <v>529</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>522</v>
@@ -20365,7 +21029,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
@@ -20382,7 +21046,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>523</v>
@@ -20397,7 +21061,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17">
@@ -20413,6 +21077,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>524</v>
       </c>
@@ -20420,7 +21087,7 @@
         <v>468</v>
       </c>
       <c r="AD17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18">
@@ -20440,7 +21107,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19">
@@ -20460,7 +21127,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20">
@@ -20480,7 +21147,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21">
@@ -20500,7 +21167,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22">
@@ -20519,6 +21186,9 @@
       <c r="Y22" t="s">
         <v>507</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -20536,6 +21206,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -20553,6 +21226,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -20570,6 +21246,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -20587,6 +21266,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -20604,6 +21286,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -20834,7 +21519,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51">
@@ -20842,7 +21527,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -20850,7 +21535,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -20858,7 +21543,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -20866,7 +21551,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55">
@@ -20874,7 +21559,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56">
@@ -20882,7 +21567,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -20890,7 +21575,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -20898,7 +21583,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59">
@@ -20906,7 +21591,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -20914,7 +21599,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -20922,7 +21607,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -20930,7 +21615,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -20938,7 +21623,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -20946,7 +21631,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -20954,7 +21639,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -20962,7 +21647,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67">
@@ -20970,15 +21655,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>551</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -20986,7 +21671,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -20994,7 +21679,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71">
@@ -21002,7 +21687,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -21010,7 +21695,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -21018,7 +21703,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -21026,7 +21711,7 @@
         <v>531</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -21034,7 +21719,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -21042,7 +21727,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -21050,7 +21735,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78">
@@ -21058,7 +21743,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79">
@@ -21066,7 +21751,7 @@
         <v>430</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -21074,7 +21759,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -21082,7 +21767,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -21090,7 +21775,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83">
@@ -21098,7 +21783,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -21106,256 +21791,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>552</v>
       </c>
       <c r="Y85" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -43,16 +43,17 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15861" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16412" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1758,6 +1759,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="494" x14ac:knownFonts="1">
+  <fonts count="510" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4892,8 +4902,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9655,8 +9766,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="847">
+  <borders count="879">
     <border>
       <left/>
       <right/>
@@ -18198,6 +18462,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18205,7 +18795,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="521">
+  <cellXfs count="537">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19742,52 +20332,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="816" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="816" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="819" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="819" fontId="480" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="822" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="822" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="484" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="831" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="831" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="822" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="822" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="834" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="834" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="834" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="834" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="843" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="846" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="849" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="852" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="858" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="849" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="861" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="861" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20142,7 +20780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20227,21 +20865,24 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -20319,21 +20960,24 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>433</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -20404,22 +21048,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -20487,22 +21131,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>425</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -20561,22 +21205,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>426</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -20629,22 +21273,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>427</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -20691,22 +21335,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>428</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -20747,22 +21391,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>429</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -20803,13 +21447,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -20844,13 +21488,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -20882,13 +21526,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -20920,13 +21564,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -20955,13 +21599,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>497</v>
       </c>
     </row>
@@ -20990,13 +21634,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>514</v>
       </c>
     </row>
@@ -21022,13 +21666,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>515</v>
       </c>
     </row>
@@ -21054,13 +21698,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -21080,13 +21724,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>524</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>468</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -21103,10 +21747,10 @@
       <c r="K18" t="s">
         <v>464</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -21123,10 +21767,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>516</v>
       </c>
     </row>
@@ -21143,10 +21787,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>517</v>
       </c>
     </row>
@@ -21163,10 +21807,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>521</v>
       </c>
     </row>
@@ -21175,7 +21819,7 @@
         <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -21183,10 +21827,10 @@
       <c r="K22" t="s">
         <v>493</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21195,7 +21839,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -21203,10 +21847,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>559</v>
       </c>
     </row>
@@ -21215,7 +21859,7 @@
         <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -21223,19 +21867,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>562</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -21243,19 +21887,19 @@
       <c r="K25" t="s">
         <v>546</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -21263,19 +21907,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -21283,19 +21927,19 @@
       <c r="K27" t="s">
         <v>435</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>491</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -21303,16 +21947,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -21320,117 +21964,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="E30" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>530</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>550</v>
       </c>
     </row>
@@ -21438,7 +22088,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -21446,7 +22096,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21454,7 +22104,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -21462,7 +22112,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21470,7 +22120,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21478,7 +22128,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21486,7 +22136,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21494,7 +22144,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>440</v>
       </c>
     </row>
@@ -21502,7 +22152,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -21510,7 +22160,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -21518,7 +22168,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>555</v>
       </c>
     </row>
@@ -21526,7 +22176,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -21534,7 +22184,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -21542,7 +22192,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -21550,7 +22200,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>505</v>
       </c>
     </row>
@@ -21558,7 +22208,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>465</v>
       </c>
     </row>
@@ -21566,7 +22216,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -21574,7 +22224,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -21582,7 +22232,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>466</v>
       </c>
     </row>
@@ -21590,7 +22240,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -21598,7 +22248,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -21606,7 +22256,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -21614,7 +22264,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -21622,7 +22272,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -21630,7 +22280,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -21638,7 +22288,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -21646,7 +22296,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>441</v>
       </c>
     </row>
@@ -21654,7 +22304,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>496</v>
       </c>
     </row>
@@ -21662,7 +22312,7 @@
       <c r="G68" t="s">
         <v>551</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -21670,7 +22320,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -21678,7 +22328,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>442</v>
       </c>
     </row>
@@ -21686,7 +22336,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -21694,7 +22344,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -21702,7 +22352,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -21710,7 +22360,7 @@
       <c r="G74" t="s">
         <v>531</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -21718,7 +22368,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -21726,7 +22376,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -21734,7 +22384,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>454</v>
       </c>
     </row>
@@ -21742,7 +22392,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>467</v>
       </c>
     </row>
@@ -21750,7 +22400,7 @@
       <c r="G79" t="s">
         <v>430</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21758,7 +22408,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -21766,7 +22416,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -21774,7 +22424,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>518</v>
       </c>
     </row>
@@ -21782,7 +22432,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -21790,7 +22440,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -21798,7 +22448,7 @@
       <c r="G85" t="s">
         <v>552</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -21806,7 +22456,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>506</v>
       </c>
     </row>
@@ -21814,7 +22464,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -21822,7 +22472,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>455</v>
       </c>
     </row>
@@ -21830,7 +22480,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -21838,7 +22488,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -21846,7 +22496,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21854,7 +22504,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -21862,7 +22512,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -21870,7 +22520,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -21878,177 +22528,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16412" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17518" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1781,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="510" x14ac:knownFonts="1">
+  <fonts count="542" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5003,8 +5009,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9919,8 +10127,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="879">
+  <borders count="943">
     <border>
       <left/>
       <right/>
@@ -18788,6 +19302,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18795,7 +19961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="537">
+  <cellXfs count="569">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20380,52 +21546,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="843" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="843" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="846" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="846" fontId="496" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="849" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="849" fontId="497" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="852" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="852" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="500" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="858" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="858" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="849" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="849" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="861" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="861" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="861" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="861" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="870" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="873" fontId="512" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="876" fontId="513" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="879" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="516" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="885" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="876" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="888" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="888" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="897" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="900" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="903" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="906" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="912" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="915" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="915" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22102,7 +23364,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -22110,7 +23372,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -22118,7 +23380,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -22126,7 +23388,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -22134,7 +23396,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -22142,7 +23404,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>440</v>
@@ -22150,7 +23412,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -22158,7 +23420,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -22166,7 +23428,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>555</v>
@@ -22174,7 +23436,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -22182,7 +23444,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -22190,7 +23452,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -22198,7 +23460,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>505</v>
@@ -22206,7 +23468,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>465</v>
@@ -22214,7 +23476,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -22222,7 +23484,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -22230,7 +23492,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>566</v>
       </c>
       <c r="Z58" t="s">
         <v>466</v>
@@ -22238,7 +23500,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -22246,7 +23508,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -22254,7 +23516,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -22262,7 +23524,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -22270,7 +23532,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -22278,7 +23540,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -22286,7 +23548,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -22294,7 +23556,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>441</v>
@@ -22302,7 +23564,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>496</v>
@@ -22310,7 +23572,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>551</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -22318,7 +23580,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -22326,7 +23588,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>411</v>
+        <v>551</v>
       </c>
       <c r="Z70" t="s">
         <v>442</v>
@@ -22334,7 +23596,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -22342,7 +23604,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -22350,7 +23612,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -22358,7 +23620,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>531</v>
+        <v>412</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -22366,7 +23628,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -22374,7 +23636,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>531</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -22382,7 +23644,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>454</v>
@@ -22390,7 +23652,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>467</v>
@@ -22398,7 +23660,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -22406,7 +23668,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -22414,7 +23676,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -22422,7 +23684,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>518</v>
@@ -22430,7 +23692,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -22438,7 +23700,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -22446,7 +23708,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>552</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -22454,7 +23716,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>506</v>
@@ -22462,7 +23724,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>552</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -22470,7 +23732,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>455</v>
@@ -22478,7 +23740,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -22486,7 +23748,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -22494,7 +23756,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -22502,7 +23764,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -22510,7 +23772,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -22518,7 +23780,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>443</v>
@@ -22526,18 +23788,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17518" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18069" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1774,6 +1774,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="542" x14ac:knownFonts="1">
+  <fonts count="558" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5211,8 +5214,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10433,8 +10537,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="943">
+  <borders count="975">
     <border>
       <left/>
       <right/>
@@ -19954,6 +20211,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19961,7 +20544,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="569">
+  <cellXfs count="585">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21642,52 +22225,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="897" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="897" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="900" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="900" fontId="528" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="903" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="903" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="906" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="906" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="532" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="912" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="912" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="903" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="915" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="915" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="915" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="915" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="924" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="927" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="930" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="933" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="939" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="942" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="942" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22042,7 +22673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22127,24 +22758,21 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
-        <v>562</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="AD1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22222,24 +22850,21 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
-        <v>564</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="AD2" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -22310,22 +22935,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22393,22 +23018,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22467,22 +23092,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD5" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22535,22 +23160,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>446</v>
       </c>
       <c r="AA6" t="s">
-        <v>446</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AD6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22597,22 +23222,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>447</v>
       </c>
       <c r="AA7" t="s">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="AD7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -22653,22 +23278,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="AD8" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -22709,13 +23334,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -22750,13 +23375,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22788,13 +23413,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22826,13 +23451,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22861,13 +23486,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>497</v>
       </c>
     </row>
@@ -22896,13 +23521,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>514</v>
       </c>
     </row>
@@ -22928,13 +23553,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>515</v>
       </c>
     </row>
@@ -22952,7 +23577,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>567</v>
       </c>
       <c r="Q16" t="s">
         <v>523</v>
@@ -22960,13 +23585,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -22984,15 +23609,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>524</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>468</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -23009,10 +23634,13 @@
       <c r="K18" t="s">
         <v>464</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -23029,10 +23657,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>516</v>
       </c>
     </row>
@@ -23049,10 +23677,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>517</v>
       </c>
     </row>
@@ -23069,10 +23697,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>521</v>
       </c>
     </row>
@@ -23089,10 +23717,10 @@
       <c r="K22" t="s">
         <v>493</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -23109,10 +23737,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>559</v>
       </c>
     </row>
@@ -23129,16 +23757,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>562</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -23149,16 +23777,16 @@
       <c r="K25" t="s">
         <v>546</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>450</v>
@@ -23169,16 +23797,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -23189,16 +23817,16 @@
       <c r="K27" t="s">
         <v>435</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -23209,13 +23837,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>491</v>
@@ -23226,13 +23854,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>492</v>
@@ -23240,21 +23868,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>417</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23265,7 +23890,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23276,7 +23901,7 @@
       <c r="G33" t="s">
         <v>530</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23287,7 +23912,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23298,7 +23923,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23309,7 +23934,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23320,7 +23945,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -23331,7 +23956,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>439</v>
       </c>
     </row>
@@ -23342,7 +23967,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>550</v>
       </c>
     </row>
@@ -23350,7 +23975,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -23358,7 +23983,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23366,7 +23991,7 @@
       <c r="G42" t="s">
         <v>565</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23374,7 +23999,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23382,7 +24007,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23390,7 +24015,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23398,7 +24023,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23406,7 +24031,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>440</v>
       </c>
     </row>
@@ -23414,7 +24039,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23422,7 +24047,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -23430,7 +24055,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>555</v>
       </c>
     </row>
@@ -23438,7 +24063,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23446,7 +24071,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23454,7 +24079,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23462,7 +24087,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>505</v>
       </c>
     </row>
@@ -23470,7 +24095,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>465</v>
       </c>
     </row>
@@ -23478,7 +24103,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23486,7 +24111,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -23494,7 +24119,7 @@
       <c r="G58" t="s">
         <v>566</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>466</v>
       </c>
     </row>
@@ -23502,7 +24127,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23510,7 +24135,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23518,7 +24143,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23526,7 +24151,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23534,7 +24159,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23542,7 +24167,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23550,7 +24175,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23558,7 +24183,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>441</v>
       </c>
     </row>
@@ -23566,7 +24191,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>496</v>
       </c>
     </row>
@@ -23574,7 +24199,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -23582,7 +24207,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -23590,7 +24215,7 @@
       <c r="G70" t="s">
         <v>551</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>442</v>
       </c>
     </row>
@@ -23598,7 +24223,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23606,7 +24231,7 @@
       <c r="G72" t="s">
         <v>411</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -23614,7 +24239,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -23622,7 +24247,7 @@
       <c r="G74" t="s">
         <v>412</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -23630,7 +24255,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -23638,7 +24263,7 @@
       <c r="G76" t="s">
         <v>531</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -23646,7 +24271,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>454</v>
       </c>
     </row>
@@ -23654,7 +24279,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>467</v>
       </c>
     </row>
@@ -23662,7 +24287,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23670,7 +24295,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -23678,7 +24303,7 @@
       <c r="G81" t="s">
         <v>430</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -23686,7 +24311,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>518</v>
       </c>
     </row>
@@ -23694,7 +24319,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -23702,7 +24327,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -23710,7 +24335,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23718,7 +24343,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>506</v>
       </c>
     </row>
@@ -23726,7 +24351,7 @@
       <c r="G87" t="s">
         <v>552</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -23734,7 +24359,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>455</v>
       </c>
     </row>
@@ -23742,7 +24367,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -23750,7 +24375,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -23758,7 +24383,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -23766,7 +24391,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -23774,7 +24399,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -23782,7 +24407,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -23790,7 +24415,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>444</v>
       </c>
     </row>
@@ -23798,7 +24423,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -23806,167 +24431,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18069" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19732" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1777,6 +1777,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1796,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="558" x14ac:knownFonts="1">
+  <fonts count="606" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5315,8 +5327,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10690,8 +11005,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="975">
+  <borders count="1071">
     <border>
       <left/>
       <right/>
@@ -20537,6 +21311,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20544,7 +22296,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="585">
+  <cellXfs count="633">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22273,52 +24025,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="924" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="924" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="927" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="927" fontId="544" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="930" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="930" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="933" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="933" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="548" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="939" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="939" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="942" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="942" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="942" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="942" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="945" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="954" fontId="560" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="957" fontId="561" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="960" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="564" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="966" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="957" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="978" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="981" fontId="576" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="984" fontId="577" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="580" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="984" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="996" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="996" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1014" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1020" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1011" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1023" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1023" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22673,7 +24569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23758,7 +25654,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>568</v>
       </c>
       <c r="AD24" t="s">
         <v>560</v>
@@ -23778,7 +25674,7 @@
         <v>546</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>561</v>
@@ -23798,7 +25694,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -23818,7 +25714,7 @@
         <v>435</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -23838,7 +25734,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -23855,7 +25751,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -23869,7 +25765,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -23880,7 +25776,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -23891,7 +25787,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -23902,7 +25798,7 @@
         <v>530</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -23913,7 +25809,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35">
@@ -23924,7 +25820,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -23935,7 +25831,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -23946,7 +25842,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -23957,7 +25853,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>439</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -23968,7 +25864,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>550</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -23976,7 +25872,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41">
@@ -23984,7 +25880,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42">
@@ -23992,7 +25888,7 @@
         <v>565</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -24000,7 +25896,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -24008,7 +25904,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -24016,7 +25912,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -24024,7 +25920,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -24032,7 +25928,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -24040,7 +25936,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -24048,7 +25944,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
@@ -24056,7 +25952,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>555</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -24064,7 +25960,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -24072,7 +25968,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53">
@@ -24080,7 +25976,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -24088,7 +25984,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>505</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -24096,7 +25992,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>465</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -24104,7 +26000,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57">
@@ -24112,7 +26008,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
@@ -24120,7 +26016,7 @@
         <v>566</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -24128,7 +26024,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -24136,7 +26032,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61">
@@ -24144,7 +26040,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -24152,7 +26048,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -24160,7 +26056,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -24168,7 +26064,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -24176,7 +26072,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -24184,7 +26080,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -24192,7 +26088,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>496</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -24200,7 +26096,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69">
@@ -24208,7 +26104,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70">
@@ -24216,7 +26112,7 @@
         <v>551</v>
       </c>
       <c r="Y70" t="s">
-        <v>442</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -24224,7 +26120,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -24232,7 +26128,7 @@
         <v>411</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73">
@@ -24240,7 +26136,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -24248,7 +26144,7 @@
         <v>412</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -24256,7 +26152,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -24264,7 +26160,7 @@
         <v>531</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -24272,7 +26168,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -24280,7 +26176,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>467</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -24288,7 +26184,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80">
@@ -24296,7 +26192,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81">
@@ -24304,7 +26200,7 @@
         <v>430</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -24312,7 +26208,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -24320,7 +26216,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -24328,7 +26224,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85">
@@ -24336,7 +26232,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -24344,7 +26240,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>506</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -24352,7 +26248,7 @@
         <v>552</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -24360,7 +26256,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="89">
@@ -24368,7 +26264,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -24376,7 +26272,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91">
@@ -24384,7 +26280,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -24392,7 +26288,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -24400,7 +26296,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94">
@@ -24408,7 +26304,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -24416,7 +26312,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>444</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -24424,7 +26320,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -24432,166 +26328,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>525</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>532</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>445</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19732" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20288" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1789,6 +1789,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1802,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="606" x14ac:knownFonts="1">
+  <fonts count="622" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5630,8 +5636,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1057">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11464,8 +11571,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1071">
+  <borders count="1103">
     <border>
       <left/>
       <right/>
@@ -22289,6 +22549,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22296,7 +22882,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="649">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24169,52 +24755,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="592" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1014" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1014" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="596" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1020" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1020" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1011" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1011" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1023" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1023" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1023" borderId="1070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1070" fillId="1023" fontId="601" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="602" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1026" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="604" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1032" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1035" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1038" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1041" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1047" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1038" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1050" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1050" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24950,7 +25584,7 @@
         <v>434</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>572</v>
       </c>
       <c r="H5" t="s">
         <v>461</v>
@@ -25024,7 +25658,7 @@
         <v>526</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>449</v>
@@ -25086,7 +25720,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>448</v>
@@ -25148,7 +25782,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -25204,7 +25838,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -25248,7 +25882,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>453</v>
@@ -25289,7 +25923,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -25327,7 +25961,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -25365,7 +25999,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -25400,7 +26034,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -25435,7 +26069,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>529</v>
@@ -25467,7 +26101,7 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -25499,7 +26133,7 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -25525,7 +26159,7 @@
         <v>416</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>464</v>
@@ -25548,7 +26182,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -25568,7 +26202,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -25588,7 +26222,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -25608,7 +26242,7 @@
         <v>563</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>493</v>
@@ -25628,7 +26262,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -25648,7 +26282,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>393</v>
@@ -25668,7 +26302,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>546</v>
@@ -25688,7 +26322,7 @@
         <v>450</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -25708,7 +26342,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>435</v>
@@ -25728,7 +26362,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -25745,7 +26379,7 @@
         <v>491</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -25762,7 +26396,7 @@
         <v>492</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -25773,7 +26407,7 @@
         <v>417</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -25784,7 +26418,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -25795,7 +26429,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>530</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -25806,7 +26440,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>530</v>
       </c>
       <c r="Y34" t="s">
         <v>569</v>
@@ -25817,7 +26451,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -25828,7 +26462,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -25839,7 +26473,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -25850,7 +26484,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -25861,7 +26495,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -25869,7 +26503,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>439</v>
@@ -25877,7 +26511,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>550</v>
@@ -25885,7 +26519,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>565</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>394</v>
@@ -25893,7 +26527,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>565</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -25901,7 +26535,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -25909,7 +26543,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -25917,7 +26551,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -25925,7 +26559,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -25933,7 +26567,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -25941,7 +26575,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>440</v>
@@ -25949,7 +26583,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -25957,7 +26591,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -25965,7 +26599,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>555</v>
@@ -25973,7 +26607,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -25981,7 +26615,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -25989,7 +26623,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -25997,7 +26631,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>505</v>
@@ -26005,7 +26639,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>465</v>
@@ -26013,7 +26647,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>566</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -26021,7 +26655,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>566</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -26029,7 +26663,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>466</v>
@@ -26037,7 +26671,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -26045,7 +26679,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -26053,7 +26687,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -26061,7 +26695,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -26069,7 +26703,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -26077,7 +26711,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -26085,7 +26719,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -26093,7 +26727,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>441</v>
@@ -26101,7 +26735,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>496</v>
@@ -26109,7 +26743,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>551</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -26117,7 +26751,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>551</v>
       </c>
       <c r="Y71" t="s">
         <v>390</v>
@@ -26125,7 +26759,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>442</v>
@@ -26133,7 +26767,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -26141,7 +26775,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -26149,7 +26783,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -26157,7 +26791,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>531</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -26165,7 +26799,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>531</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -26173,7 +26807,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -26181,7 +26815,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>454</v>
@@ -26189,7 +26823,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>467</v>
@@ -26197,7 +26831,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>430</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -26205,7 +26839,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -26213,7 +26847,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -26221,7 +26855,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>518</v>
@@ -26229,7 +26863,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -26237,7 +26871,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -26245,7 +26879,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>552</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -26253,7 +26887,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>552</v>
       </c>
       <c r="Y88" t="s">
         <v>506</v>
@@ -26261,7 +26895,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -26269,7 +26903,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>455</v>
@@ -26277,7 +26911,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -26285,7 +26919,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -26293,15 +26927,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -26309,7 +26943,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -26317,7 +26951,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -26325,13 +26959,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>444</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20288" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20845" uniqueCount="575">
   <si>
     <t>description</t>
   </si>
@@ -1795,6 +1795,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1805,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="622" x14ac:knownFonts="1">
+  <fonts count="638" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5737,8 +5740,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1057">
+  <fills count="1084">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11724,8 +11828,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1103">
+  <borders count="1135">
     <border>
       <left/>
       <right/>
@@ -22875,6 +23132,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22882,7 +23465,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="665">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24803,52 +25386,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1032" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1032" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1035" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1035" fontId="608" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1038" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1038" fontId="609" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1041" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1041" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="612" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1047" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1047" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1038" borderId="1098" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1038" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1050" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1050" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1050" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1050" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1059" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1062" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1065" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1074" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1065" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1077" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1077" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25203,7 +25834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26938,7 +27569,7 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95">
@@ -26946,7 +27577,7 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -26954,7 +27585,7 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -26962,7 +27593,7 @@
         <v>278</v>
       </c>
       <c r="Y97" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -26970,181 +27601,186 @@
         <v>279</v>
       </c>
       <c r="Y98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>570</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,40 +20,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20845" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21406" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1798,6 +1799,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1824,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="638" x14ac:knownFonts="1">
+  <fonts count="654" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5841,8 +5860,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1084">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11981,8 +12101,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1135">
+  <borders count="1167">
     <border>
       <left/>
       <right/>
@@ -23458,6 +23731,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23465,7 +24064,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="665">
+  <cellXfs count="681">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25434,52 +26033,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1059" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1059" fontId="622" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1062" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1062" fontId="624" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1065" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1065" fontId="625" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1068" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="628" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1074" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1074" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1065" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1065" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1077" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1077" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1077" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1077" fontId="633" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1086" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1089" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1092" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1095" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1101" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1092" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1104" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1104" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25834,7 +26481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25859,81 +26506,84 @@
         <v>508</v>
       </c>
       <c r="E1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>534</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>499</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>413</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>414</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -25951,81 +26601,84 @@
         <v>509</v>
       </c>
       <c r="E2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>451</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>462</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>436</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>535</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>502</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>418</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>431</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>399</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>420</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>421</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>408</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>433</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -26042,76 +26695,76 @@
       <c r="D3" t="s">
         <v>545</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>459</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>500</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>536</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>503</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>432</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>400</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>422</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -26125,82 +26778,82 @@
       <c r="D4" t="s">
         <v>510</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>452</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>501</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>537</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>504</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>401</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>423</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>425</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -26208,73 +26861,73 @@
       <c r="D5" t="s">
         <v>511</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>460</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>434</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>572</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>461</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>549</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>463</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>547</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>402</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>424</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>426</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -26282,1505 +26935,1513 @@
       <c r="D6" t="s">
         <v>512</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>526</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>449</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>541</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>403</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>427</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>448</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>553</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>542</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>419</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>404</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>428</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>527</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>543</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>405</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>429</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>548</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>406</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>307</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>453</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>538</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>438</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>577</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>323</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>528</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>495</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>539</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>275</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>324</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>391</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>554</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>540</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>437</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>534</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>326</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>494</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>499</v>
-      </c>
-      <c r="E15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>529</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>522</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>567</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>523</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>524</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>468</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>416</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>464</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" t="s">
         <v>257</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>298</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>414</v>
-      </c>
-      <c r="E22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" t="s">
         <v>563</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>493</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
         <v>322</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>291</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>568</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>546</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>450</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>435</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>491</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" t="s">
+        <v>492</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>492</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>417</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>530</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>550</v>
+      <c r="Z41" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>565</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>566</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>551</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>531</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>430</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>552</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21406" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21968" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1817,6 +1817,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1830,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="654" x14ac:knownFonts="1">
+  <fonts count="670" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5961,8 +5967,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12254,8 +12361,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1167">
+  <borders count="1199">
     <border>
       <left/>
       <right/>
@@ -24057,6 +24317,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24064,7 +24650,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="681">
+  <cellXfs count="697">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26081,52 +26667,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1086" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1086" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1089" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1089" fontId="640" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1092" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1092" fontId="641" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1095" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1095" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="644" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1101" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1101" fontId="646" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1092" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1092" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1104" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1104" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1104" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1104" fontId="649" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1113" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1116" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1119" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1122" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1128" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1119" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1131" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1131" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27440,7 +28074,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>581</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -27463,7 +28097,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -27483,7 +28117,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -27503,13 +28137,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>381</v>
+        <v>582</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -27523,7 +28157,7 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -27543,7 +28177,7 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -27563,7 +28197,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -27583,7 +28217,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -27603,7 +28237,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -27623,7 +28257,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -27643,7 +28277,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -27660,7 +28294,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>491</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -27677,7 +28311,7 @@
         <v>415</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -27691,7 +28325,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -27702,7 +28336,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -27713,7 +28347,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -27724,7 +28358,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>530</v>
@@ -27735,7 +28369,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -27746,7 +28380,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -27757,7 +28391,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -27768,7 +28402,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -27779,7 +28413,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -27789,6 +28423,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,15 +20,15 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21968" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22533" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1823,6 +1823,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="670" x14ac:knownFonts="1">
+  <fonts count="686" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6068,8 +6083,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12514,8 +12630,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1199">
+  <borders count="1231">
     <border>
       <left/>
       <right/>
@@ -20553,6 +20822,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -24650,7 +25245,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="697">
+  <cellXfs count="713">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26715,52 +27310,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1113" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1113" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1116" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1116" fontId="656" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1119" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1119" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1122" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1122" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="660" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1128" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1128" fontId="662" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1119" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1119" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="1131" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1131" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="1131" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1131" fontId="665" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="666" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="667" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="668" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1140" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1143" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1146" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1149" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1155" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1146" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1158" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1158" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27115,7 +27758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27431,7 +28074,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
       <c r="M4" t="s">
         <v>336</v>
@@ -27467,7 +28110,7 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>585</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -27514,7 +28157,7 @@
         <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -27581,11 +28224,14 @@
       <c r="I6" t="s">
         <v>449</v>
       </c>
+      <c r="J6" t="s">
+        <v>583</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -27647,7 +28293,7 @@
         <v>553</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>316</v>
@@ -27706,7 +28352,7 @@
         <v>329</v>
       </c>
       <c r="L8" t="s">
-        <v>527</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -27762,7 +28408,7 @@
         <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -27806,7 +28452,7 @@
         <v>453</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -27847,7 +28493,7 @@
         <v>323</v>
       </c>
       <c r="L11" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>495</v>
@@ -27885,7 +28531,7 @@
         <v>324</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>528</v>
       </c>
       <c r="N12" t="s">
         <v>554</v>
@@ -27923,7 +28569,7 @@
         <v>325</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
         <v>437</v>
@@ -27958,7 +28604,7 @@
         <v>326</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>494</v>
@@ -27990,7 +28636,7 @@
         <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>529</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -28022,7 +28668,7 @@
         <v>266</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="N16" t="s">
         <v>567</v>
@@ -28054,7 +28700,7 @@
         <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -28074,13 +28720,13 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>581</v>
+        <v>416</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>464</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -28097,13 +28743,13 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>464</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -28117,13 +28763,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -28137,13 +28783,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>582</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -28157,13 +28803,13 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>563</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
       <c r="Z22" t="s">
         <v>507</v>
@@ -28177,13 +28823,13 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>563</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -28197,13 +28843,13 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>568</v>
@@ -28217,13 +28863,13 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>393</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -28237,13 +28883,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>450</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -28257,13 +28903,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>450</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -28277,13 +28923,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -28294,13 +28940,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>491</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>328</v>
@@ -28311,10 +28957,13 @@
         <v>415</v>
       </c>
       <c r="F30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -28325,7 +28974,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -28336,7 +28985,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>417</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -28347,7 +28996,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -28358,7 +29007,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>530</v>
@@ -28369,7 +29018,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -28380,7 +29029,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -28391,7 +29040,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -28402,7 +29051,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -28413,7 +29062,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -28423,9 +29072,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -28899,186 +29545,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>205</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>206</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>525</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>580</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>150</v>
+        <v>580</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>445</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>570</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>166</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22533" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23098" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1845,7 +1845,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="686" x14ac:knownFonts="1">
+  <fonts count="702" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6184,8 +6184,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12783,8 +12884,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1231">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -20822,6 +21076,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -25245,7 +25825,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="713">
+  <cellXfs count="729">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27358,52 +27938,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1140" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1140" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1143" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1143" fontId="672" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1146" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1146" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1149" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1149" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="676" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1155" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1155" fontId="678" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1146" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1146" fontId="679" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1158" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1158" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="1158" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1158" fontId="681" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="682" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1161" fontId="683" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1167" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1170" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1173" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1176" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1182" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1173" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1185" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1185" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23098" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23664" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="702" x14ac:knownFonts="1">
+  <fonts count="718" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6285,8 +6288,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1192">
+  <fills count="1219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13037,8 +13141,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1295">
     <border>
       <left/>
       <right/>
@@ -21076,6 +21333,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -25825,7 +26408,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="729">
+  <cellXfs count="745">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27986,52 +28569,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1167" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1167" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1170" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1170" fontId="688" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1173" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1173" fontId="689" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1176" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1176" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="692" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1182" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1182" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1173" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1173" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1185" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1185" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1185" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1185" fontId="697" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="698" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1188" fontId="699" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="700" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1194" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1197" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1200" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1203" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1209" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1200" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1212" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1212" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28386,7 +29017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30096,7 +30727,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>201</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90">
@@ -30104,7 +30735,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -30112,7 +30743,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92">
@@ -30120,7 +30751,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -30128,7 +30759,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>573</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
@@ -30136,7 +30767,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95">
@@ -30144,7 +30775,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>216</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96">
@@ -30152,7 +30783,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -30160,7 +30791,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
@@ -30168,201 +30799,206 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>586</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>444</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23664" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24230" uniqueCount="589">
   <si>
     <t>description</t>
   </si>
@@ -1848,7 +1848,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="718" x14ac:knownFonts="1">
+  <fonts count="734" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6389,8 +6389,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1219">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13294,8 +13395,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1295">
+  <borders count="1327">
     <border>
       <left/>
       <right/>
@@ -21333,6 +21587,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26408,7 +26988,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="745">
+  <cellXfs count="761">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28617,52 +29197,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="701" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1194" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1194" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1197" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1197" fontId="704" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1200" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1200" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1203" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1203" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="707" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="708" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="1209" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1209" fontId="710" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="1200" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1200" fontId="711" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="1212" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1212" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="1212" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1212" fontId="713" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="714" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="714" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="1215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="715" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="716" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1221" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1224" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1227" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1230" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1236" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1227" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1239" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1239" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -25,9 +25,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -36,25 +36,26 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24230" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24815" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1841,6 +1842,63 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1906,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="734" x14ac:knownFonts="1">
+  <fonts count="750" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6490,8 +6548,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13548,8 +13707,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1327">
+  <borders count="1359">
     <border>
       <left/>
       <right/>
@@ -21587,6 +21899,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26988,7 +27626,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="761">
+  <cellXfs count="777">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29245,52 +29883,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1221" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1221" fontId="718" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1224" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1224" fontId="720" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1227" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1227" fontId="721" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1230" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1230" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="724" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1236" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1236" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1227" borderId="1322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1227" fontId="727" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="1239" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1239" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="1239" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1239" fontId="729" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="730" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1248" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1251" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1254" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1257" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1263" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1254" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1266" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1266" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29645,7 +30331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29733,21 +30419,24 @@
         <v>398</v>
       </c>
       <c r="Z1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>415</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -29783,7 +30472,7 @@
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>462</v>
+        <v>592</v>
       </c>
       <c r="L2" t="s">
         <v>316</v>
@@ -29828,21 +30517,24 @@
         <v>408</v>
       </c>
       <c r="Z2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA2" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>433</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -29914,21 +30606,24 @@
         <v>409</v>
       </c>
       <c r="Z3" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>365</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -29997,21 +30692,24 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA4" t="s">
         <v>585</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>425</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -30071,21 +30769,24 @@
         <v>360</v>
       </c>
       <c r="Z5" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA5" t="s">
         <v>578</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
-        <v>180</v>
-      </c>
       <c r="AC5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD5" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>426</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -30115,7 +30816,7 @@
         <v>583</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>593</v>
       </c>
       <c r="L6" t="s">
         <v>463</v>
@@ -30142,21 +30843,24 @@
         <v>362</v>
       </c>
       <c r="Z6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA6" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>446</v>
       </c>
-      <c r="AB6" t="s">
-        <v>181</v>
-      </c>
       <c r="AC6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD6" t="s">
         <v>187</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>427</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -30177,7 +30881,7 @@
         <v>448</v>
       </c>
       <c r="K7" t="s">
-        <v>553</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
         <v>73</v>
@@ -30203,22 +30907,22 @@
       <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>447</v>
       </c>
-      <c r="AB7" t="s">
-        <v>182</v>
-      </c>
       <c r="AC7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD7" t="s">
         <v>188</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>428</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -30238,6 +30942,9 @@
       <c r="I8" t="s">
         <v>329</v>
       </c>
+      <c r="K8" t="s">
+        <v>553</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -30259,22 +30966,22 @@
       <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" t="s">
-        <v>183</v>
-      </c>
       <c r="AC8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD8" t="s">
         <v>189</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>429</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30315,13 +31022,16 @@
       <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>210</v>
       </c>
       <c r="AC9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -30336,7 +31046,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>590</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -30356,13 +31066,16 @@
       <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>258</v>
       </c>
       <c r="AC10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30377,7 +31090,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>591</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -30394,13 +31107,13 @@
       <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -30415,7 +31128,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="L12" t="s">
         <v>528</v>
@@ -30432,13 +31145,13 @@
       <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -30453,7 +31166,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -30465,15 +31178,15 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>497</v>
       </c>
     </row>
@@ -30488,7 +31201,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -30500,15 +31213,15 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>514</v>
       </c>
     </row>
@@ -30522,6 +31235,9 @@
       <c r="H15" t="s">
         <v>265</v>
       </c>
+      <c r="I15" t="s">
+        <v>325</v>
+      </c>
       <c r="L15" t="s">
         <v>42</v>
       </c>
@@ -30532,15 +31248,15 @@
         <v>522</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>515</v>
       </c>
     </row>
@@ -30554,6 +31270,9 @@
       <c r="H16" t="s">
         <v>266</v>
       </c>
+      <c r="I16" t="s">
+        <v>326</v>
+      </c>
       <c r="L16" t="s">
         <v>529</v>
       </c>
@@ -30564,15 +31283,15 @@
         <v>523</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -30592,13 +31311,16 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Z17" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s">
         <v>468</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -30618,10 +31340,10 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE18" t="s">
+      <c r="AA18" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -30638,10 +31360,10 @@
       <c r="L19" t="s">
         <v>464</v>
       </c>
-      <c r="Z19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE19" t="s">
+      <c r="AA19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF19" t="s">
         <v>516</v>
       </c>
     </row>
@@ -30658,10 +31380,10 @@
       <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AA20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF20" t="s">
         <v>517</v>
       </c>
     </row>
@@ -30678,10 +31400,10 @@
       <c r="L21" t="s">
         <v>85</v>
       </c>
-      <c r="Z21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE21" t="s">
+      <c r="AA21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF21" t="s">
         <v>521</v>
       </c>
     </row>
@@ -30698,10 +31420,10 @@
       <c r="L22" t="s">
         <v>582</v>
       </c>
-      <c r="Z22" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AA22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30718,10 +31440,10 @@
       <c r="L23" t="s">
         <v>493</v>
       </c>
-      <c r="Z23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AA23" t="s">
+        <v>507</v>
+      </c>
+      <c r="AF23" t="s">
         <v>559</v>
       </c>
     </row>
@@ -30738,10 +31460,10 @@
       <c r="L24" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE24" t="s">
+      <c r="AA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF24" t="s">
         <v>560</v>
       </c>
     </row>
@@ -30758,16 +31480,16 @@
       <c r="L25" t="s">
         <v>393</v>
       </c>
-      <c r="Z25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="AA25" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>589</v>
       </c>
       <c r="F26" t="s">
         <v>450</v>
@@ -30778,16 +31500,16 @@
       <c r="L26" t="s">
         <v>546</v>
       </c>
-      <c r="Z26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE26" t="s">
+      <c r="AA26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>226</v>
@@ -30798,16 +31520,16 @@
       <c r="L27" t="s">
         <v>86</v>
       </c>
-      <c r="Z27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AA27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>227</v>
@@ -30818,13 +31540,13 @@
       <c r="L28" t="s">
         <v>435</v>
       </c>
-      <c r="Z28" t="s">
-        <v>115</v>
+      <c r="AA28" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>491</v>
@@ -30835,13 +31557,13 @@
       <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
-        <v>328</v>
+      <c r="AA29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>492</v>
@@ -30852,13 +31574,13 @@
       <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="Z30" t="s">
-        <v>116</v>
+      <c r="AA30" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="F31" t="s">
         <v>417</v>
@@ -30866,19 +31588,22 @@
       <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Z31" t="s">
-        <v>117</v>
+      <c r="AA31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
       <c r="F32" t="s">
         <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Z32" t="s">
-        <v>118</v>
+      <c r="AA32" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -30888,8 +31613,8 @@
       <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Z33" t="s">
-        <v>119</v>
+      <c r="AA33" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -30899,8 +31624,8 @@
       <c r="H34" t="s">
         <v>530</v>
       </c>
-      <c r="Z34" t="s">
-        <v>569</v>
+      <c r="AA34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -30910,8 +31635,8 @@
       <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Z35" t="s">
-        <v>120</v>
+      <c r="AA35" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="36">
@@ -30921,8 +31646,8 @@
       <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Z36" t="s">
-        <v>121</v>
+      <c r="AA36" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -30932,8 +31657,8 @@
       <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Z37" t="s">
-        <v>211</v>
+      <c r="AA37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -30943,8 +31668,8 @@
       <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Z38" t="s">
-        <v>122</v>
+      <c r="AA38" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39">
@@ -30954,679 +31679,709 @@
       <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Z39" t="s">
-        <v>339</v>
+      <c r="AA39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Z40" t="s">
-        <v>439</v>
+      <c r="AA40" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="41">
       <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Z41" t="s">
-        <v>579</v>
+      <c r="AA41" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="42">
       <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Z42" t="s">
-        <v>394</v>
+      <c r="AA42" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="43">
       <c r="H43" t="s">
         <v>565</v>
       </c>
-      <c r="Z43" t="s">
-        <v>123</v>
+      <c r="AA43" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Z44" t="s">
-        <v>124</v>
+      <c r="AA44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Z45" t="s">
-        <v>125</v>
+      <c r="AA45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Z46" t="s">
-        <v>126</v>
+      <c r="AA46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Z47" t="s">
-        <v>127</v>
+      <c r="AA47" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Z48" t="s">
-        <v>128</v>
+      <c r="AA48" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Z49" t="s">
-        <v>440</v>
+      <c r="AA49" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Z50" t="s">
-        <v>214</v>
+      <c r="AA50" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Z51" t="s">
-        <v>78</v>
+      <c r="AA51" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Z52" t="s">
-        <v>555</v>
+      <c r="AA52" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Z53" t="s">
-        <v>129</v>
+      <c r="AA53" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Z54" t="s">
-        <v>130</v>
+      <c r="AA54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Z55" t="s">
-        <v>131</v>
+      <c r="AA55" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Z56" t="s">
-        <v>505</v>
+      <c r="AA56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Z57" t="s">
-        <v>465</v>
+      <c r="AA57" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Z58" t="s">
-        <v>132</v>
+      <c r="AA58" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
         <v>566</v>
       </c>
-      <c r="Z59" t="s">
-        <v>347</v>
+      <c r="AA59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Z60" t="s">
-        <v>466</v>
+      <c r="AA60" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Z61" t="s">
-        <v>133</v>
+      <c r="AA61" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Z62" t="s">
-        <v>134</v>
+      <c r="AA62" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Z63" t="s">
-        <v>135</v>
+      <c r="AA63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Z64" t="s">
-        <v>136</v>
+      <c r="AA64" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Z65" t="s">
-        <v>137</v>
+      <c r="AA65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Z66" t="s">
-        <v>138</v>
+      <c r="AA66" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Z67" t="s">
-        <v>139</v>
+      <c r="AA67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Z68" t="s">
-        <v>441</v>
+      <c r="AA68" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Z69" t="s">
-        <v>496</v>
+      <c r="AA69" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Z70" t="s">
-        <v>215</v>
+      <c r="AA70" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
         <v>551</v>
       </c>
-      <c r="Z71" t="s">
-        <v>390</v>
+      <c r="AA71" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Z72" t="s">
-        <v>442</v>
+      <c r="AA72" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Z73" t="s">
-        <v>140</v>
+      <c r="AA73" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Z74" t="s">
-        <v>141</v>
+      <c r="AA74" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Z75" t="s">
-        <v>142</v>
+      <c r="AA75" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Z76" t="s">
-        <v>143</v>
+      <c r="AA76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
         <v>531</v>
       </c>
-      <c r="Z77" t="s">
-        <v>198</v>
+      <c r="AA77" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Z78" t="s">
-        <v>199</v>
+      <c r="AA78" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Z79" t="s">
-        <v>454</v>
+      <c r="AA79" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
-        <v>467</v>
+      <c r="AA80" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Z81" t="s">
-        <v>144</v>
+      <c r="AA81" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>430</v>
       </c>
-      <c r="Z82" t="s">
-        <v>145</v>
+      <c r="AA82" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Z83" t="s">
-        <v>146</v>
+      <c r="AA83" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Z84" t="s">
-        <v>518</v>
+      <c r="AA84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Z85" t="s">
-        <v>147</v>
+      <c r="AA85" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Z86" t="s">
-        <v>148</v>
+      <c r="AA86" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Z87" t="s">
-        <v>200</v>
+      <c r="AA87" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>552</v>
       </c>
-      <c r="Z88" t="s">
-        <v>506</v>
+      <c r="AA88" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Z89" t="s">
-        <v>588</v>
+      <c r="AA89" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Z90" t="s">
-        <v>201</v>
+      <c r="AA90" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Z91" t="s">
-        <v>455</v>
+      <c r="AA91" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Z92" t="s">
-        <v>202</v>
+      <c r="AA92" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Z93" t="s">
-        <v>203</v>
+      <c r="AA93" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Z94" t="s">
-        <v>573</v>
+      <c r="AA94" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Z95" t="s">
-        <v>574</v>
+      <c r="AA95" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Z96" t="s">
-        <v>216</v>
+      <c r="AA96" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Z97" t="s">
-        <v>149</v>
+      <c r="AA97" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AA110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="AA120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="AA123" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="AA130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="AA142" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$42</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -37,14 +37,14 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -52,10 +52,11 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24815" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26597" uniqueCount="631">
   <si>
     <t>description</t>
   </si>
@@ -1899,6 +1900,75 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1976,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="750" x14ac:knownFonts="1">
+  <fonts count="798" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6649,8 +6719,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13860,8 +14233,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1359">
+  <borders count="1455">
     <border>
       <left/>
       <right/>
@@ -21899,6 +22731,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -27626,7 +29436,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="777">
+  <cellXfs count="825">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29931,52 +31741,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1248" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1248" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1251" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1251" fontId="736" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1254" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1254" fontId="737" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1257" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1257" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="739" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="740" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="741" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1263" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1263" fontId="742" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1254" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1254" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="1266" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1266" fontId="744" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="1266" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1266" fontId="745" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="746" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="747" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="748" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1275" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1278" fontId="752" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1281" fontId="753" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1378" fillId="1284" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="755" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="756" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1290" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1281" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1293" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1293" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="763" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="764" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1302" fontId="766" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="767" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1305" fontId="768" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1308" fontId="769" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1311" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="771" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="772" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="773" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1317" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1308" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1320" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1320" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="778" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="779" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="780" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="781" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1329" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1332" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1335" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1338" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1344" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1335" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1347" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1347" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30331,7 +32285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30419,7 +32373,7 @@
         <v>398</v>
       </c>
       <c r="Z1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="AA1" t="s">
         <v>55</v>
@@ -30499,7 +32453,7 @@
         <v>254</v>
       </c>
       <c r="T2" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="U2" t="s">
         <v>399</v>
@@ -30517,7 +32471,7 @@
         <v>408</v>
       </c>
       <c r="Z2" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="AA2" t="s">
         <v>98</v>
@@ -30591,7 +32545,7 @@
         <v>241</v>
       </c>
       <c r="T3" t="s">
-        <v>219</v>
+        <v>614</v>
       </c>
       <c r="U3" t="s">
         <v>400</v>
@@ -30606,7 +32560,7 @@
         <v>409</v>
       </c>
       <c r="Z3" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="AA3" t="s">
         <v>99</v>
@@ -30677,7 +32631,7 @@
         <v>242</v>
       </c>
       <c r="T4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U4" t="s">
         <v>401</v>
@@ -30692,7 +32646,7 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="AA4" t="s">
         <v>585</v>
@@ -30757,7 +32711,7 @@
         <v>243</v>
       </c>
       <c r="T5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U5" t="s">
         <v>402</v>
@@ -30767,9 +32721,6 @@
       </c>
       <c r="X5" t="s">
         <v>360</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>598</v>
       </c>
       <c r="AA5" t="s">
         <v>578</v>
@@ -30834,16 +32785,13 @@
         <v>244</v>
       </c>
       <c r="T6" t="s">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="U6" t="s">
         <v>403</v>
       </c>
       <c r="X6" t="s">
         <v>362</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>599</v>
       </c>
       <c r="AA6" t="s">
         <v>100</v>
@@ -30899,7 +32847,7 @@
         <v>245</v>
       </c>
       <c r="T7" t="s">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="U7" t="s">
         <v>404</v>
@@ -30960,6 +32908,9 @@
       <c r="S8" t="s">
         <v>246</v>
       </c>
+      <c r="T8" t="s">
+        <v>392</v>
+      </c>
       <c r="U8" t="s">
         <v>405</v>
       </c>
@@ -31016,6 +32967,9 @@
       <c r="S9" t="s">
         <v>247</v>
       </c>
+      <c r="T9" t="s">
+        <v>419</v>
+      </c>
       <c r="U9" t="s">
         <v>406</v>
       </c>
@@ -31137,7 +33091,7 @@
         <v>554</v>
       </c>
       <c r="O12" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="R12" t="s">
         <v>41</v>
@@ -31174,6 +33128,9 @@
       <c r="N13" t="s">
         <v>437</v>
       </c>
+      <c r="O13" t="s">
+        <v>540</v>
+      </c>
       <c r="R13" t="s">
         <v>95</v>
       </c>
@@ -31251,7 +33208,7 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="AD15" t="s">
         <v>195</v>
@@ -31286,7 +33243,7 @@
         <v>252</v>
       </c>
       <c r="AA16" t="s">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="AD16" t="s">
         <v>196</v>
@@ -31315,7 +33272,7 @@
         <v>253</v>
       </c>
       <c r="AA17" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AD17" t="s">
         <v>468</v>
@@ -31341,7 +33298,7 @@
         <v>43</v>
       </c>
       <c r="AA18" t="s">
-        <v>524</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s">
         <v>498</v>
@@ -31352,7 +33309,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>609</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -31361,7 +33318,7 @@
         <v>464</v>
       </c>
       <c r="AA19" t="s">
-        <v>106</v>
+        <v>524</v>
       </c>
       <c r="AF19" t="s">
         <v>516</v>
@@ -31372,7 +33329,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>610</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -31381,7 +33338,7 @@
         <v>84</v>
       </c>
       <c r="AA20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF20" t="s">
         <v>517</v>
@@ -31392,7 +33349,7 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>611</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -31401,7 +33358,7 @@
         <v>85</v>
       </c>
       <c r="AA21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF21" t="s">
         <v>521</v>
@@ -31412,7 +33369,7 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -31421,7 +33378,7 @@
         <v>582</v>
       </c>
       <c r="AA22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF22" t="s">
         <v>236</v>
@@ -31432,7 +33389,7 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -31441,7 +33398,7 @@
         <v>493</v>
       </c>
       <c r="AA23" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AF23" t="s">
         <v>559</v>
@@ -31452,7 +33409,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -31461,7 +33418,7 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
       <c r="AF24" t="s">
         <v>560</v>
@@ -31472,7 +33429,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>563</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -31481,7 +33438,7 @@
         <v>393</v>
       </c>
       <c r="AA25" t="s">
-        <v>568</v>
+        <v>111</v>
       </c>
       <c r="AF25" t="s">
         <v>561</v>
@@ -31489,10 +33446,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>450</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -31501,7 +33458,7 @@
         <v>546</v>
       </c>
       <c r="AA26" t="s">
-        <v>112</v>
+        <v>568</v>
       </c>
       <c r="AF26" t="s">
         <v>237</v>
@@ -31512,7 +33469,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -31521,7 +33478,7 @@
         <v>86</v>
       </c>
       <c r="AA27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF27" t="s">
         <v>238</v>
@@ -31532,7 +33489,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -31541,7 +33498,7 @@
         <v>435</v>
       </c>
       <c r="AA28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -31549,7 +33506,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -31558,7 +33515,7 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30">
@@ -31566,7 +33523,7 @@
         <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>492</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -31575,7 +33532,7 @@
         <v>46</v>
       </c>
       <c r="AA30" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -31583,13 +33540,13 @@
         <v>415</v>
       </c>
       <c r="F31" t="s">
-        <v>417</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
       </c>
       <c r="AA31" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32">
@@ -31597,114 +33554,123 @@
         <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>491</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
       </c>
       <c r="AA32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>492</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
       </c>
       <c r="AA33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>417</v>
       </c>
       <c r="H34" t="s">
         <v>530</v>
       </c>
       <c r="AA34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
       </c>
       <c r="AA35" t="s">
-        <v>569</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
       </c>
       <c r="AA36" t="s">
-        <v>120</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
       </c>
       <c r="AA37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
       </c>
       <c r="AA38" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
       </c>
       <c r="AA39" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
       <c r="AA40" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
       <c r="H41" t="s">
         <v>79</v>
       </c>
       <c r="AA41" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
       <c r="H42" t="s">
         <v>213</v>
       </c>
       <c r="AA42" t="s">
-        <v>579</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43">
@@ -31712,7 +33678,7 @@
         <v>565</v>
       </c>
       <c r="AA43" t="s">
-        <v>394</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44">
@@ -31720,7 +33686,7 @@
         <v>290</v>
       </c>
       <c r="AA44" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45">
@@ -31728,7 +33694,7 @@
         <v>301</v>
       </c>
       <c r="AA45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -31736,7 +33702,7 @@
         <v>302</v>
       </c>
       <c r="AA46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -31744,7 +33710,7 @@
         <v>344</v>
       </c>
       <c r="AA47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -31752,7 +33718,7 @@
         <v>343</v>
       </c>
       <c r="AA48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
@@ -31760,7 +33726,7 @@
         <v>212</v>
       </c>
       <c r="AA49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -31768,7 +33734,7 @@
         <v>321</v>
       </c>
       <c r="AA50" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -31776,7 +33742,7 @@
         <v>340</v>
       </c>
       <c r="AA51" t="s">
-        <v>214</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52">
@@ -31784,7 +33750,7 @@
         <v>369</v>
       </c>
       <c r="AA52" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
@@ -31792,7 +33758,7 @@
         <v>303</v>
       </c>
       <c r="AA53" t="s">
-        <v>555</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -31800,7 +33766,7 @@
         <v>357</v>
       </c>
       <c r="AA54" t="s">
-        <v>129</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55">
@@ -31808,7 +33774,7 @@
         <v>332</v>
       </c>
       <c r="AA55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -31816,7 +33782,7 @@
         <v>269</v>
       </c>
       <c r="AA56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -31824,7 +33790,7 @@
         <v>293</v>
       </c>
       <c r="AA57" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58">
@@ -31832,7 +33798,7 @@
         <v>294</v>
       </c>
       <c r="AA58" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59">
@@ -31840,7 +33806,7 @@
         <v>566</v>
       </c>
       <c r="AA59" t="s">
-        <v>132</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60">
@@ -31848,7 +33814,7 @@
         <v>295</v>
       </c>
       <c r="AA60" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -31856,7 +33822,7 @@
         <v>304</v>
       </c>
       <c r="AA61" t="s">
-        <v>466</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62">
@@ -31864,7 +33830,7 @@
         <v>313</v>
       </c>
       <c r="AA62" t="s">
-        <v>133</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
@@ -31872,7 +33838,7 @@
         <v>338</v>
       </c>
       <c r="AA63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
@@ -31880,7 +33846,7 @@
         <v>310</v>
       </c>
       <c r="AA64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
@@ -31888,7 +33854,7 @@
         <v>311</v>
       </c>
       <c r="AA65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
@@ -31896,7 +33862,7 @@
         <v>370</v>
       </c>
       <c r="AA66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
@@ -31904,7 +33870,7 @@
         <v>371</v>
       </c>
       <c r="AA67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
@@ -31912,7 +33878,7 @@
         <v>346</v>
       </c>
       <c r="AA68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
@@ -31920,7 +33886,7 @@
         <v>314</v>
       </c>
       <c r="AA69" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70">
@@ -31928,7 +33894,7 @@
         <v>270</v>
       </c>
       <c r="AA70" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71">
@@ -31936,7 +33902,7 @@
         <v>551</v>
       </c>
       <c r="AA71" t="s">
-        <v>215</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72">
@@ -31944,7 +33910,7 @@
         <v>315</v>
       </c>
       <c r="AA72" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73">
@@ -31952,7 +33918,7 @@
         <v>411</v>
       </c>
       <c r="AA73" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74">
@@ -31960,7 +33926,7 @@
         <v>305</v>
       </c>
       <c r="AA74" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75">
@@ -31968,7 +33934,7 @@
         <v>412</v>
       </c>
       <c r="AA75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
@@ -31976,7 +33942,7 @@
         <v>263</v>
       </c>
       <c r="AA76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
@@ -31984,7 +33950,7 @@
         <v>531</v>
       </c>
       <c r="AA77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
@@ -31992,7 +33958,7 @@
         <v>345</v>
       </c>
       <c r="AA78" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79">
@@ -32000,7 +33966,7 @@
         <v>281</v>
       </c>
       <c r="AA79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80">
@@ -32008,7 +33974,7 @@
         <v>287</v>
       </c>
       <c r="AA80" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81">
@@ -32016,7 +33982,7 @@
         <v>292</v>
       </c>
       <c r="AA81" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82">
@@ -32024,7 +33990,7 @@
         <v>430</v>
       </c>
       <c r="AA82" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83">
@@ -32032,7 +33998,7 @@
         <v>333</v>
       </c>
       <c r="AA83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -32040,7 +34006,7 @@
         <v>271</v>
       </c>
       <c r="AA84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
@@ -32048,7 +34014,7 @@
         <v>282</v>
       </c>
       <c r="AA85" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86">
@@ -32056,7 +34022,7 @@
         <v>288</v>
       </c>
       <c r="AA86" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87">
@@ -32064,7 +34030,7 @@
         <v>277</v>
       </c>
       <c r="AA87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
@@ -32072,7 +34038,7 @@
         <v>552</v>
       </c>
       <c r="AA88" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89">
@@ -32080,7 +34046,7 @@
         <v>272</v>
       </c>
       <c r="AA89" t="s">
-        <v>506</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -32088,7 +34054,7 @@
         <v>289</v>
       </c>
       <c r="AA90" t="s">
-        <v>588</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91">
@@ -32096,7 +34062,7 @@
         <v>273</v>
       </c>
       <c r="AA91" t="s">
-        <v>201</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92">
@@ -32104,7 +34070,7 @@
         <v>274</v>
       </c>
       <c r="AA92" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
@@ -32112,7 +34078,7 @@
         <v>306</v>
       </c>
       <c r="AA93" t="s">
-        <v>202</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94">
@@ -32120,7 +34086,7 @@
         <v>312</v>
       </c>
       <c r="AA94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95">
@@ -32128,7 +34094,7 @@
         <v>296</v>
       </c>
       <c r="AA95" t="s">
-        <v>573</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96">
@@ -32136,7 +34102,7 @@
         <v>341</v>
       </c>
       <c r="AA96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
@@ -32144,7 +34110,7 @@
         <v>278</v>
       </c>
       <c r="AA97" t="s">
-        <v>216</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98">
@@ -32152,237 +34118,262 @@
         <v>279</v>
       </c>
       <c r="AA98" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>443</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>586</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>444</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>205</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>601</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>209</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>525</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>150</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>533</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>602</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>153</v>
+        <v>602</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>603</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>155</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>604</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>161</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>445</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>164</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>165</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>169</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="AA146" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="AA147" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AA148" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AA149" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -36,26 +36,26 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$149</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26597" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27875" uniqueCount="673">
   <si>
     <t>description</t>
   </si>
@@ -1969,6 +1969,132 @@
   </si>
   <si>
     <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="798" x14ac:knownFonts="1">
+  <fonts count="832" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7022,8 +7148,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1354">
+  <fills count="1402">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14690,6 +15030,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -29436,7 +30048,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="825">
+  <cellXfs count="859">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31885,52 +32497,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="1329" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1329" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="783" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="1332" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1332" fontId="784" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1335" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1335" fontId="785" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1338" borderId="1442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1338" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="787" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="788" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="789" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1344" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1344" fontId="790" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="791" fillId="1335" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1335" fontId="791" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="792" fillId="1347" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1347" fontId="792" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="1347" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1347" fontId="793" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="794" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="794" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="795" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="795" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="796" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="796" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="797" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="797" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="800" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="801" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="803" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="804" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="810" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="812" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="813" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32285,7 +32999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG149"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32376,21 +33090,24 @@
         <v>608</v>
       </c>
       <c r="AA1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>415</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32474,21 +33191,24 @@
         <v>615</v>
       </c>
       <c r="AA2" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>177</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>184</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -32563,21 +33283,24 @@
         <v>616</v>
       </c>
       <c r="AA3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB3" t="s">
         <v>99</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>178</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>365</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>185</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -32649,21 +33372,24 @@
         <v>617</v>
       </c>
       <c r="AA4" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB4" t="s">
         <v>585</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>179</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>185</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>425</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -32723,21 +33449,24 @@
         <v>360</v>
       </c>
       <c r="AA5" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB5" t="s">
         <v>578</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>175</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>606</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>186</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>426</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -32794,21 +33523,24 @@
         <v>362</v>
       </c>
       <c r="AA6" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB6" t="s">
         <v>100</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>180</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>187</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>427</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32856,21 +33588,24 @@
         <v>361</v>
       </c>
       <c r="AA7" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB7" t="s">
         <v>101</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>447</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>181</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>188</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>428</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -32918,21 +33653,24 @@
         <v>363</v>
       </c>
       <c r="AA8" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB8" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>176</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>182</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>189</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>429</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -32977,15 +33715,18 @@
         <v>364</v>
       </c>
       <c r="AA9" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>183</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>190</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -33021,15 +33762,18 @@
         <v>407</v>
       </c>
       <c r="AA10" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>607</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>191</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -33059,15 +33803,18 @@
         <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>249</v>
+        <v>634</v>
       </c>
       <c r="AA11" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB11" t="s">
         <v>259</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>260</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -33097,15 +33844,18 @@
         <v>41</v>
       </c>
       <c r="S12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB12" t="s">
         <v>103</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>192</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -33135,15 +33885,18 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="AA13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB13" t="s">
         <v>327</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>193</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>497</v>
       </c>
     </row>
@@ -33170,15 +33923,18 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>255</v>
+        <v>594</v>
       </c>
       <c r="AA14" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB14" t="s">
         <v>104</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>194</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>514</v>
       </c>
     </row>
@@ -33205,15 +33961,18 @@
         <v>522</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AA15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB15" t="s">
         <v>618</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>195</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>515</v>
       </c>
     </row>
@@ -33240,15 +33999,18 @@
         <v>523</v>
       </c>
       <c r="S16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB16" t="s">
         <v>600</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>196</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -33269,15 +34031,18 @@
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA17" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB17" t="s">
         <v>105</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>468</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -33297,10 +34062,16 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
+      <c r="S18" t="s">
+        <v>253</v>
+      </c>
       <c r="AA18" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB18" t="s">
         <v>76</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -33318,9 +34089,12 @@
         <v>464</v>
       </c>
       <c r="AA19" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB19" t="s">
         <v>524</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>516</v>
       </c>
     </row>
@@ -33338,9 +34112,12 @@
         <v>84</v>
       </c>
       <c r="AA20" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB20" t="s">
         <v>106</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>517</v>
       </c>
     </row>
@@ -33358,9 +34135,12 @@
         <v>85</v>
       </c>
       <c r="AA21" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB21" t="s">
         <v>107</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>521</v>
       </c>
     </row>
@@ -33378,9 +34158,12 @@
         <v>582</v>
       </c>
       <c r="AA22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB22" t="s">
         <v>108</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -33398,9 +34181,12 @@
         <v>493</v>
       </c>
       <c r="AA23" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB23" t="s">
         <v>109</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>559</v>
       </c>
     </row>
@@ -33418,9 +34204,12 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB24" t="s">
         <v>507</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>560</v>
       </c>
     </row>
@@ -33429,7 +34218,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -33438,9 +34227,12 @@
         <v>393</v>
       </c>
       <c r="AA25" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB25" t="s">
         <v>111</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>561</v>
       </c>
     </row>
@@ -33449,243 +34241,294 @@
         <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>546</v>
+        <v>633</v>
       </c>
       <c r="AA26" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB26" t="s">
         <v>568</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>589</v>
       </c>
       <c r="F27" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="AA27" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB27" t="s">
         <v>112</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="AA28" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AA29" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA30" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
       </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
       <c r="AA31" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="F32" t="s">
-        <v>491</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
       </c>
       <c r="AA32" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
       <c r="F33" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
       </c>
       <c r="AA33" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="H34" t="s">
         <v>530</v>
       </c>
       <c r="AA34" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
       </c>
       <c r="AA35" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
       </c>
       <c r="AA36" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB36" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
       </c>
       <c r="AA37" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
       </c>
       <c r="AA38" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
       <c r="H43" t="s">
         <v>565</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>632</v>
+      </c>
       <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>394</v>
       </c>
     </row>
@@ -33693,7 +34536,7 @@
       <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -33701,7 +34544,7 @@
       <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>124</v>
       </c>
     </row>
@@ -33709,7 +34552,7 @@
       <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>125</v>
       </c>
     </row>
@@ -33717,7 +34560,7 @@
       <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>126</v>
       </c>
     </row>
@@ -33725,7 +34568,7 @@
       <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33733,7 +34576,7 @@
       <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -33741,7 +34584,7 @@
       <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>619</v>
       </c>
     </row>
@@ -33749,7 +34592,7 @@
       <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>214</v>
       </c>
     </row>
@@ -33757,7 +34600,7 @@
       <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -33765,7 +34608,7 @@
       <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>555</v>
       </c>
     </row>
@@ -33773,7 +34616,7 @@
       <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>129</v>
       </c>
     </row>
@@ -33781,7 +34624,7 @@
       <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -33789,7 +34632,7 @@
       <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -33797,7 +34640,7 @@
       <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>505</v>
       </c>
     </row>
@@ -33805,7 +34648,7 @@
       <c r="H59" t="s">
         <v>566</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>465</v>
       </c>
     </row>
@@ -33813,7 +34656,7 @@
       <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -33821,7 +34664,7 @@
       <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>347</v>
       </c>
     </row>
@@ -33829,7 +34672,7 @@
       <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>466</v>
       </c>
     </row>
@@ -33837,7 +34680,7 @@
       <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>133</v>
       </c>
     </row>
@@ -33845,7 +34688,7 @@
       <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>134</v>
       </c>
     </row>
@@ -33853,7 +34696,7 @@
       <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>135</v>
       </c>
     </row>
@@ -33861,7 +34704,7 @@
       <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>136</v>
       </c>
     </row>
@@ -33869,7 +34712,7 @@
       <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>137</v>
       </c>
     </row>
@@ -33877,7 +34720,7 @@
       <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33885,7 +34728,7 @@
       <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33893,7 +34736,7 @@
       <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>441</v>
       </c>
     </row>
@@ -33901,7 +34744,7 @@
       <c r="H71" t="s">
         <v>551</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>496</v>
       </c>
     </row>
@@ -33909,7 +34752,7 @@
       <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>215</v>
       </c>
     </row>
@@ -33917,7 +34760,7 @@
       <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>390</v>
       </c>
     </row>
@@ -33925,7 +34768,7 @@
       <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>442</v>
       </c>
     </row>
@@ -33933,7 +34776,7 @@
       <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33941,7 +34784,7 @@
       <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33949,7 +34792,7 @@
       <c r="H77" t="s">
         <v>531</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -33957,7 +34800,7 @@
       <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -33965,414 +34808,424 @@
       <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="AA79" t="s">
-        <v>198</v>
+      <c r="AB79" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="AA80" t="s">
-        <v>199</v>
+      <c r="AB80" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="AA81" t="s">
-        <v>454</v>
+      <c r="AB81" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>430</v>
       </c>
-      <c r="AA82" t="s">
-        <v>467</v>
+      <c r="AB82" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="AA83" t="s">
-        <v>144</v>
+      <c r="AB83" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="AA84" t="s">
-        <v>145</v>
+      <c r="AB84" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="AA85" t="s">
-        <v>146</v>
+      <c r="AB85" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="AA86" t="s">
-        <v>518</v>
+      <c r="AB86" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="AA87" t="s">
-        <v>147</v>
+      <c r="AB87" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>552</v>
       </c>
-      <c r="AA88" t="s">
-        <v>148</v>
+      <c r="AB88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="AA89" t="s">
-        <v>200</v>
+      <c r="AB89" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="AA90" t="s">
-        <v>506</v>
+      <c r="AB90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="AA91" t="s">
-        <v>588</v>
+      <c r="AB91" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="AA92" t="s">
-        <v>201</v>
+      <c r="AB92" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="AA93" t="s">
-        <v>455</v>
+      <c r="AB93" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="AA94" t="s">
-        <v>202</v>
+      <c r="AB94" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="AA95" t="s">
-        <v>203</v>
+      <c r="AB95" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="AA96" t="s">
-        <v>573</v>
+      <c r="AB96" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="AA97" t="s">
-        <v>574</v>
+      <c r="AB97" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>580</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AB144" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AB148" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AB149" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AB150" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AB151" t="s">
         <v>629</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -20,13 +20,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27875" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28477" uniqueCount="675">
   <si>
     <t>description</t>
   </si>
@@ -2095,6 +2095,12 @@
   </si>
   <si>
     <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="832" x14ac:knownFonts="1">
+  <fonts count="849" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7362,8 +7368,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1402">
+  <fills count="1426">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15030,6 +15143,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -30048,7 +30297,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="859">
+  <cellXfs count="876">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32596,55 +32845,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="814" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="816" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="817" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="818" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="819" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="820" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="821" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="822" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="823" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="823" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="824" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="824" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="825" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="825" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="826" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="827" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="828" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="828" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="829" fillId="1401" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1401" fontId="829" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="1389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="830" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32999,7 +33299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -33090,24 +33390,21 @@
         <v>608</v>
       </c>
       <c r="AA1" t="s">
-        <v>589</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE1" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="AF1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -33140,7 +33437,7 @@
         <v>451</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>674</v>
       </c>
       <c r="K2" t="s">
         <v>592</v>
@@ -33191,24 +33488,21 @@
         <v>615</v>
       </c>
       <c r="AA2" t="s">
-        <v>635</v>
+        <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AD2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE2" t="s">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="AF2" t="s">
-        <v>433</v>
-      </c>
-      <c r="AG2" t="s">
         <v>513</v>
       </c>
     </row>
@@ -33238,7 +33532,7 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>350</v>
@@ -33283,24 +33577,21 @@
         <v>616</v>
       </c>
       <c r="AA3" t="s">
-        <v>636</v>
+        <v>99</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AC3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AD3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AE3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AF3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -33327,7 +33618,7 @@
         <v>452</v>
       </c>
       <c r="J4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K4" t="s">
         <v>351</v>
@@ -33372,24 +33663,21 @@
         <v>617</v>
       </c>
       <c r="AA4" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="AB4" t="s">
-        <v>585</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AD4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AE4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AF4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -33416,7 +33704,7 @@
         <v>461</v>
       </c>
       <c r="J5" t="s">
-        <v>549</v>
+        <v>501</v>
       </c>
       <c r="K5" t="s">
         <v>352</v>
@@ -33449,24 +33737,21 @@
         <v>360</v>
       </c>
       <c r="AA5" t="s">
-        <v>638</v>
+        <v>578</v>
       </c>
       <c r="AB5" t="s">
-        <v>578</v>
+        <v>175</v>
       </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>606</v>
       </c>
       <c r="AD5" t="s">
-        <v>606</v>
+        <v>186</v>
       </c>
       <c r="AE5" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AF5" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -33493,7 +33778,7 @@
         <v>449</v>
       </c>
       <c r="J6" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="K6" t="s">
         <v>593</v>
@@ -33523,24 +33808,21 @@
         <v>362</v>
       </c>
       <c r="AA6" t="s">
-        <v>639</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="s">
-        <v>100</v>
+        <v>446</v>
       </c>
       <c r="AC6" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="AD6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AE6" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AF6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -33560,6 +33842,9 @@
       <c r="I7" t="s">
         <v>448</v>
       </c>
+      <c r="J7" t="s">
+        <v>583</v>
+      </c>
       <c r="K7" t="s">
         <v>349</v>
       </c>
@@ -33588,24 +33873,21 @@
         <v>361</v>
       </c>
       <c r="AA7" t="s">
-        <v>640</v>
+        <v>101</v>
       </c>
       <c r="AB7" t="s">
-        <v>101</v>
+        <v>447</v>
       </c>
       <c r="AC7" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="AD7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AE7" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="AF7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG7" t="s">
         <v>556</v>
       </c>
     </row>
@@ -33653,24 +33935,21 @@
         <v>363</v>
       </c>
       <c r="AA8" t="s">
-        <v>641</v>
+        <v>102</v>
       </c>
       <c r="AB8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AC8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AD8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AE8" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="AF8" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG8" t="s">
         <v>557</v>
       </c>
     </row>
@@ -33715,18 +33994,15 @@
         <v>364</v>
       </c>
       <c r="AA9" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB9" t="s">
         <v>210</v>
       </c>
+      <c r="AC9" t="s">
+        <v>183</v>
+      </c>
       <c r="AD9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE9" t="s">
         <v>190</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>558</v>
       </c>
     </row>
@@ -33762,18 +34038,15 @@
         <v>407</v>
       </c>
       <c r="AA10" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB10" t="s">
         <v>258</v>
       </c>
+      <c r="AC10" t="s">
+        <v>607</v>
+      </c>
       <c r="AD10" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE10" t="s">
         <v>191</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -33782,7 +34055,7 @@
         <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
       <c r="H11" t="s">
         <v>353</v>
@@ -33806,15 +34079,12 @@
         <v>634</v>
       </c>
       <c r="AA11" t="s">
-        <v>644</v>
-      </c>
-      <c r="AB11" t="s">
         <v>259</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>260</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -33823,7 +34093,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>320</v>
+        <v>577</v>
       </c>
       <c r="H12" t="s">
         <v>275</v>
@@ -33847,15 +34117,12 @@
         <v>249</v>
       </c>
       <c r="AA12" t="s">
-        <v>645</v>
-      </c>
-      <c r="AB12" t="s">
         <v>103</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>192</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -33864,7 +34131,7 @@
         <v>334</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H13" t="s">
         <v>264</v>
@@ -33888,15 +34155,12 @@
         <v>250</v>
       </c>
       <c r="AA13" t="s">
-        <v>646</v>
-      </c>
-      <c r="AB13" t="s">
         <v>327</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>193</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>497</v>
       </c>
     </row>
@@ -33905,7 +34169,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="H14" t="s">
         <v>317</v>
@@ -33926,15 +34190,12 @@
         <v>594</v>
       </c>
       <c r="AA14" t="s">
-        <v>647</v>
-      </c>
-      <c r="AB14" t="s">
         <v>104</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>194</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>514</v>
       </c>
     </row>
@@ -33943,7 +34204,7 @@
         <v>534</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>265</v>
@@ -33964,15 +34225,12 @@
         <v>255</v>
       </c>
       <c r="AA15" t="s">
-        <v>648</v>
-      </c>
-      <c r="AB15" t="s">
         <v>618</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>195</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>515</v>
       </c>
     </row>
@@ -33981,7 +34239,7 @@
         <v>499</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
         <v>266</v>
@@ -34002,15 +34260,12 @@
         <v>251</v>
       </c>
       <c r="AA16" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB16" t="s">
         <v>600</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>196</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>519</v>
       </c>
     </row>
@@ -34019,7 +34274,7 @@
         <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H17" t="s">
         <v>318</v>
@@ -34034,15 +34289,12 @@
         <v>252</v>
       </c>
       <c r="AA17" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB17" t="s">
         <v>105</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>468</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -34051,7 +34303,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -34066,12 +34318,9 @@
         <v>253</v>
       </c>
       <c r="AA18" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB18" t="s">
         <v>76</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -34080,7 +34329,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>609</v>
+        <v>416</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -34089,12 +34338,9 @@
         <v>464</v>
       </c>
       <c r="AA19" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB19" t="s">
         <v>524</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>516</v>
       </c>
     </row>
@@ -34103,7 +34349,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -34112,12 +34358,9 @@
         <v>84</v>
       </c>
       <c r="AA20" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB20" t="s">
         <v>106</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>517</v>
       </c>
     </row>
@@ -34126,7 +34369,7 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
@@ -34135,12 +34378,9 @@
         <v>85</v>
       </c>
       <c r="AA21" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB21" t="s">
         <v>107</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>521</v>
       </c>
     </row>
@@ -34149,7 +34389,7 @@
         <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>611</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -34158,12 +34398,9 @@
         <v>582</v>
       </c>
       <c r="AA22" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB22" t="s">
         <v>108</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -34172,7 +34409,7 @@
         <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -34181,12 +34418,9 @@
         <v>493</v>
       </c>
       <c r="AA23" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB23" t="s">
         <v>109</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>559</v>
       </c>
     </row>
@@ -34195,7 +34429,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -34204,12 +34438,9 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB24" t="s">
         <v>507</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>560</v>
       </c>
     </row>
@@ -34218,7 +34449,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>631</v>
+        <v>257</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -34227,12 +34458,9 @@
         <v>393</v>
       </c>
       <c r="AA25" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB25" t="s">
         <v>111</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>561</v>
       </c>
     </row>
@@ -34241,7 +34469,7 @@
         <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -34250,21 +34478,18 @@
         <v>633</v>
       </c>
       <c r="AA26" t="s">
-        <v>596</v>
-      </c>
-      <c r="AB26" t="s">
         <v>568</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -34273,21 +34498,18 @@
         <v>546</v>
       </c>
       <c r="AA27" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB27" t="s">
         <v>112</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -34296,18 +34518,15 @@
         <v>86</v>
       </c>
       <c r="AA28" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -34316,18 +34535,15 @@
         <v>435</v>
       </c>
       <c r="AA29" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -34336,18 +34552,15 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -34356,187 +34569,163 @@
         <v>46</v>
       </c>
       <c r="AA31" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
       </c>
       <c r="AA32" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
       <c r="F33" t="s">
-        <v>491</v>
+        <v>227</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
       </c>
       <c r="AA33" t="s">
-        <v>664</v>
-      </c>
-      <c r="AB33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H34" t="s">
         <v>530</v>
       </c>
       <c r="AA34" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
       </c>
       <c r="AA35" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>417</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
       </c>
       <c r="AA36" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB36" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
       </c>
       <c r="AA37" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
       </c>
       <c r="AA38" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB38" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
         <v>565</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>632</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>632</v>
+      </c>
       <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>123</v>
       </c>
     </row>
@@ -34544,7 +34733,7 @@
       <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>124</v>
       </c>
     </row>
@@ -34552,7 +34741,7 @@
       <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>125</v>
       </c>
     </row>
@@ -34560,7 +34749,7 @@
       <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34568,7 +34757,7 @@
       <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34576,7 +34765,7 @@
       <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -34584,7 +34773,7 @@
       <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>619</v>
       </c>
     </row>
@@ -34592,7 +34781,7 @@
       <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>214</v>
       </c>
     </row>
@@ -34600,7 +34789,7 @@
       <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -34608,7 +34797,7 @@
       <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>555</v>
       </c>
     </row>
@@ -34616,7 +34805,7 @@
       <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>129</v>
       </c>
     </row>
@@ -34624,7 +34813,7 @@
       <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -34632,7 +34821,7 @@
       <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -34640,7 +34829,7 @@
       <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>505</v>
       </c>
     </row>
@@ -34648,7 +34837,7 @@
       <c r="H59" t="s">
         <v>566</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>465</v>
       </c>
     </row>
@@ -34656,7 +34845,7 @@
       <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -34664,7 +34853,7 @@
       <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>347</v>
       </c>
     </row>
@@ -34672,7 +34861,7 @@
       <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>466</v>
       </c>
     </row>
@@ -34680,7 +34869,7 @@
       <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>133</v>
       </c>
     </row>
@@ -34688,7 +34877,7 @@
       <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>134</v>
       </c>
     </row>
@@ -34696,7 +34885,7 @@
       <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>135</v>
       </c>
     </row>
@@ -34704,7 +34893,7 @@
       <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>136</v>
       </c>
     </row>
@@ -34712,7 +34901,7 @@
       <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>137</v>
       </c>
     </row>
@@ -34720,7 +34909,7 @@
       <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34728,7 +34917,7 @@
       <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34736,7 +34925,7 @@
       <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>441</v>
       </c>
     </row>
@@ -34744,7 +34933,7 @@
       <c r="H71" t="s">
         <v>551</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>496</v>
       </c>
     </row>
@@ -34752,7 +34941,7 @@
       <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>215</v>
       </c>
     </row>
@@ -34760,7 +34949,7 @@
       <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>390</v>
       </c>
     </row>
@@ -34768,7 +34957,7 @@
       <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>442</v>
       </c>
     </row>
@@ -34776,7 +34965,7 @@
       <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>140</v>
       </c>
     </row>
@@ -34784,7 +34973,7 @@
       <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>141</v>
       </c>
     </row>
@@ -34792,7 +34981,7 @@
       <c r="H77" t="s">
         <v>531</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -34800,7 +34989,7 @@
       <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -34808,7 +34997,7 @@
       <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>670</v>
       </c>
     </row>
@@ -34816,7 +35005,7 @@
       <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>198</v>
       </c>
     </row>
@@ -34824,7 +35013,7 @@
       <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>199</v>
       </c>
     </row>
@@ -34832,7 +35021,7 @@
       <c r="H82" t="s">
         <v>430</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>454</v>
       </c>
     </row>
@@ -34840,7 +35029,7 @@
       <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>467</v>
       </c>
     </row>
@@ -34848,7 +35037,7 @@
       <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>144</v>
       </c>
     </row>
@@ -34856,7 +35045,7 @@
       <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>145</v>
       </c>
     </row>
@@ -34864,7 +35053,7 @@
       <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>146</v>
       </c>
     </row>
@@ -34872,7 +35061,7 @@
       <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>518</v>
       </c>
     </row>
@@ -34880,7 +35069,7 @@
       <c r="H88" t="s">
         <v>552</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>147</v>
       </c>
     </row>
@@ -34888,7 +35077,7 @@
       <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>148</v>
       </c>
     </row>
@@ -34896,7 +35085,7 @@
       <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>200</v>
       </c>
     </row>
@@ -34904,7 +35093,7 @@
       <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>506</v>
       </c>
     </row>
@@ -34912,7 +35101,7 @@
       <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>588</v>
       </c>
     </row>
@@ -34920,7 +35109,7 @@
       <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>201</v>
       </c>
     </row>
@@ -34928,7 +35117,7 @@
       <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>455</v>
       </c>
     </row>
@@ -34936,7 +35125,7 @@
       <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>202</v>
       </c>
     </row>
@@ -34944,7 +35133,7 @@
       <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -34952,7 +35141,7 @@
       <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>573</v>
       </c>
     </row>
@@ -34960,272 +35149,272 @@
       <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>629</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28477" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29079" uniqueCount="675">
   <si>
     <t>description</t>
   </si>
@@ -2108,7 +2108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="849" x14ac:knownFonts="1">
+  <fonts count="866" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7475,8 +7475,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1426">
+  <fills count="1450">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15143,6 +15250,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -30297,7 +30540,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="876">
+  <cellXfs count="893">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32896,55 +33139,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="831" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="832" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="833" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="834" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="835" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="835" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="836" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="836" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="837" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="838" fillId="1416" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1416" fontId="838" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="839" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="840" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="840" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="841" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="842" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="842" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="843" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="844" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="845" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="845" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="846" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="847" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="847" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="1443" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/disable-showcase.xlsx
@@ -28,15 +28,15 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29079" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29688" uniqueCount="682">
   <si>
     <t>description</t>
   </si>
@@ -2101,6 +2101,27 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="866" x14ac:knownFonts="1">
+  <fonts count="883" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7582,8 +7603,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1450">
+  <fills count="1474">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15250,6 +15378,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -30540,7 +30804,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="893">
+  <cellXfs count="910">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33190,55 +33454,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="848" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="849" fillId="1428" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1428" fontId="849" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="850" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="851" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="851" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="852" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="853" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="853" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="854" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="855" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="855" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="856" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="1443" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1443" fontId="857" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="858" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="859" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="859" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="860" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="861" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="862" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="863" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="863" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="864" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="865" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1455" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1464" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1470" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33752,7 +34067,7 @@
         <v>502</v>
       </c>
       <c r="Q2" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="R2" t="s">
         <v>431</v>
@@ -33846,6 +34161,9 @@
       <c r="P3" t="s">
         <v>503</v>
       </c>
+      <c r="Q3" t="s">
+        <v>677</v>
+      </c>
       <c r="R3" t="s">
         <v>432</v>
       </c>
@@ -33932,6 +34250,9 @@
       <c r="P4" t="s">
         <v>504</v>
       </c>
+      <c r="Q4" t="s">
+        <v>418</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -34012,6 +34333,9 @@
       <c r="O5" t="s">
         <v>547</v>
       </c>
+      <c r="Q5" t="s">
+        <v>678</v>
+      </c>
       <c r="R5" t="s">
         <v>30</v>
       </c>
@@ -34143,7 +34467,7 @@
         <v>349</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>675</v>
       </c>
       <c r="N7" t="s">
         <v>316</v>
@@ -34205,7 +34529,7 @@
         <v>553</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -34264,7 +34588,7 @@
         <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>527</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -34314,7 +34638,7 @@
         <v>590</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -34358,7 +34682,7 @@
         <v>591</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
         <v>495</v>
@@ -34396,7 +34720,7 @@
         <v>453</v>
       </c>
       <c r="L12" t="s">
-        <v>528</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
         <v>554</v>
@@ -34434,7 +34758,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>391</v>
+        <v>528</v>
       </c>
       <c r="N13" t="s">
         <v>437</v>
@@ -34446,7 +34770,7 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>679</v>
       </c>
       <c r="AA13" t="s">
         <v>327</v>
@@ -34472,7 +34796,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="N14" t="s">
         <v>494</v>
@@ -34481,7 +34805,7 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>594</v>
+        <v>250</v>
       </c>
       <c r="AA14" t="s">
         <v>104</v>
@@ -34507,7 +34831,7 @@
         <v>325</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -34516,7 +34840,7 @@
         <v>522</v>
       </c>
       <c r="S15" t="s">
-        <v>255</v>
+        <v>594</v>
       </c>
       <c r="AA15" t="s">
         <v>618</v>
@@ -34542,7 +34866,7 @@
         <v>326</v>
       </c>
       <c r="L16" t="s">
-        <v>529</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
         <v>567</v>
@@ -34551,7 +34875,7 @@
         <v>523</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AA16" t="s">
         <v>600</v>
@@ -34574,13 +34898,13 @@
         <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA17" t="s">
         <v>105</v>
@@ -34603,13 +34927,13 @@
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA18" t="s">
         <v>76</v>
@@ -34629,7 +34953,10 @@
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>464</v>
+        <v>83</v>
+      </c>
+      <c r="S19" t="s">
+        <v>680</v>
       </c>
       <c r="AA19" t="s">
         <v>524</v>
@@ -34649,7 +34976,10 @@
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>464</v>
+      </c>
+      <c r="S20" t="s">
+        <v>253</v>
       </c>
       <c r="AA20" t="s">
         <v>106</v>
@@ -34669,7 +34999,10 @@
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="S21" t="s">
+        <v>681</v>
       </c>
       <c r="AA21" t="s">
         <v>107</v>
@@ -34689,7 +35022,7 @@
         <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>582</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="s">
         <v>108</v>
@@ -34709,7 +35042,7 @@
         <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
       <c r="AA23" t="s">
         <v>109</v>
@@ -34729,7 +35062,7 @@
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="AA24" t="s">
         <v>507</v>
@@ -34749,7 +35082,7 @@
         <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
         <v>111</v>
@@ -34769,7 +35102,7 @@
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>633</v>
+        <v>393</v>
       </c>
       <c r="AA26" t="s">
         <v>568</v>
@@ -34789,7 +35122,7 @@
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>546</v>
+        <v>633</v>
       </c>
       <c r="AA27" t="s">
         <v>112</v>
@@ -34809,7 +35142,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="AA28" t="s">
         <v>113</v>
@@ -34826,7 +35159,7 @@
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>435</v>
+        <v>86</v>
       </c>
       <c r="AA29" t="s">
         <v>114</v>
@@ -34843,7 +35176,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AA30" t="s">
         <v>115</v>
@@ -34860,7 +35193,7 @@
         <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s">
         <v>328</v>
@@ -34875,6 +35208,9 @@
       </c>
       <c r="H32" t="s">
         <v>276</v>
+      </c>
+      <c r="L32" t="s">
+        <v>46</v>
       </c>
       <c r="AA32" t="s">
         <v>116</v>
